--- a/lab7.xlsx
+++ b/lab7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="РОСТ" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>рост</t>
   </si>
@@ -82,6 +82,30 @@
   </si>
   <si>
     <t>Т.к. Хи^2 набл &lt; Хи^2 крит, то нет оснований отвергать гипотезу о нормальном распределении</t>
+  </si>
+  <si>
+    <t>xi-x cp</t>
+  </si>
+  <si>
+    <t>yi-y cp</t>
+  </si>
+  <si>
+    <t>(xi-x cp)^2</t>
+  </si>
+  <si>
+    <t>(yi-y cp)^2</t>
+  </si>
+  <si>
+    <t>(xi-x cp)*(yi-y cp)</t>
+  </si>
+  <si>
+    <t>а. По формуле:</t>
+  </si>
+  <si>
+    <t>r xy =</t>
+  </si>
+  <si>
+    <t>r крит =</t>
   </si>
 </sst>
 </file>
@@ -351,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -386,7 +410,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5338,7 +5362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:R25"/>
     </sheetView>
   </sheetViews>
@@ -9884,23 +9908,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D252"/>
+  <dimension ref="A1:L252"/>
   <sheetViews>
-    <sheetView topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="E249" sqref="E249"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -9914,8 +9956,26 @@
       <c r="D2">
         <v>-3.5462903724692296</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>-9.6369849961774889</v>
+      </c>
+      <c r="F2">
+        <v>-13.591558158623229</v>
+      </c>
+      <c r="G2">
+        <v>92.871479816550035</v>
+      </c>
+      <c r="H2">
+        <v>184.73045317923766</v>
+      </c>
+      <c r="I2">
+        <v>130.98164204932581</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -9929,8 +9989,29 @@
       <c r="D3">
         <v>-4.9414779823564459</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>-9.1238117056491319</v>
+      </c>
+      <c r="F3">
+        <v>-14.473572477982088</v>
+      </c>
+      <c r="G3">
+        <v>83.243940040140117</v>
+      </c>
+      <c r="H3">
+        <v>209.48430027540059</v>
+      </c>
+      <c r="I3">
+        <v>132.05414999717408</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>0.63624118630833748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -9944,8 +10025,29 @@
       <c r="D4">
         <v>8.3133727457607165</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>-9.0171461670252029</v>
+      </c>
+      <c r="F4">
+        <v>-1.1120562112409971</v>
+      </c>
+      <c r="G4">
+        <v>81.308924997497314</v>
+      </c>
+      <c r="H4">
+        <v>1.236669016959681</v>
+      </c>
+      <c r="I4">
+        <v>10.027573402708326</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -9959,8 +10061,23 @@
       <c r="D5">
         <v>-1.0411611128802178</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>-8.3528148570621852</v>
+      </c>
+      <c r="F5">
+        <v>-9.8022587599189137</v>
+      </c>
+      <c r="G5">
+        <v>69.769516036358766</v>
+      </c>
+      <c r="H5">
+        <v>96.084276796407082</v>
+      </c>
+      <c r="I5">
+        <v>81.876452602618656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -9974,8 +10091,23 @@
       <c r="D6">
         <v>-0.21560140339715872</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>-8.3262212319823448</v>
+      </c>
+      <c r="F6">
+        <v>-8.9501054253560142</v>
+      </c>
+      <c r="G6">
+        <v>69.325960003913593</v>
+      </c>
+      <c r="H6">
+        <v>80.104387124987156</v>
+      </c>
+      <c r="I6">
+        <v>74.52055782107962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -9989,8 +10121,23 @@
       <c r="D7">
         <v>-0.21253754312056117</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>-8.2922425099241082</v>
+      </c>
+      <c r="F7">
+        <v>-8.91306284302118</v>
+      </c>
+      <c r="G7">
+        <v>68.761285843392471</v>
+      </c>
+      <c r="H7">
+        <v>79.442689243644807</v>
+      </c>
+      <c r="I7">
+        <v>73.909278600525255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -10004,8 +10151,23 @@
       <c r="D8">
         <v>1.8430114323564339</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>-6.9662356145272497</v>
+      </c>
+      <c r="F8">
+        <v>-5.5315069721473265</v>
+      </c>
+      <c r="G8">
+        <v>48.528438637107847</v>
+      </c>
+      <c r="H8">
+        <v>30.597569382914482</v>
+      </c>
+      <c r="I8">
+        <v>38.533780871378497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -10019,8 +10181,23 @@
       <c r="D9">
         <v>7.3300952863064595</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>-6.8088020816503558</v>
+      </c>
+      <c r="F9">
+        <v>0.11301041467959294</v>
+      </c>
+      <c r="G9">
+        <v>46.359785787086217</v>
+      </c>
+      <c r="H9">
+        <v>1.2771353826053556E-2</v>
+      </c>
+      <c r="I9">
+        <v>-0.76946554671858236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -10034,8 +10211,23 @@
       <c r="D10">
         <v>0.22861854631628376</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>-6.8062191166973207</v>
+      </c>
+      <c r="F10">
+        <v>-6.9858833603575476</v>
+      </c>
+      <c r="G10">
+        <v>46.324618664496057</v>
+      </c>
+      <c r="H10">
+        <v>48.802566324520463</v>
+      </c>
+      <c r="I10">
+        <v>47.547452874283259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -10049,8 +10241,23 @@
       <c r="D11">
         <v>2.3391066861222498</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>-6.7997980841028038</v>
+      </c>
+      <c r="F11">
+        <v>-4.8689741879570647</v>
+      </c>
+      <c r="G11">
+        <v>46.237253984568163</v>
+      </c>
+      <c r="H11">
+        <v>23.706909642992159</v>
+      </c>
+      <c r="I11">
+        <v>33.108041354816457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -10064,8 +10271,23 @@
       <c r="D12">
         <v>-6.0374873100954574</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>-6.6892762879433576</v>
+      </c>
+      <c r="F12">
+        <v>-13.135046388015326</v>
+      </c>
+      <c r="G12">
+        <v>44.746417256441262</v>
+      </c>
+      <c r="H12">
+        <v>172.52944361531445</v>
+      </c>
+      <c r="I12">
+        <v>87.863954344386968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -10079,8 +10301,23 @@
       <c r="D13">
         <v>-0.95220684670493938</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>-6.6322873499302659</v>
+      </c>
+      <c r="F13">
+        <v>-7.992776986611716</v>
+      </c>
+      <c r="G13">
+        <v>43.987235492045031</v>
+      </c>
+      <c r="H13">
+        <v>63.884483957709861</v>
+      </c>
+      <c r="I13">
+        <v>53.010393699118637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -10094,8 +10331,23 @@
       <c r="D14">
         <v>-8.1734242485254072</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>-6.5579270631133113</v>
+      </c>
+      <c r="F14">
+        <v>-15.139634101615229</v>
+      </c>
+      <c r="G14">
+        <v>43.006407365113979</v>
+      </c>
+      <c r="H14">
+        <v>229.20852073079078</v>
+      </c>
+      <c r="I14">
+        <v>99.284616200615702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -10109,8 +10361,23 @@
       <c r="D15">
         <v>4.4209059524291661</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>-6.5417198675277177</v>
+      </c>
+      <c r="F15">
+        <v>-2.5290967050750623</v>
+      </c>
+      <c r="G15">
+        <v>42.794098825206859</v>
+      </c>
+      <c r="H15">
+        <v>6.3963301436215367</v>
+      </c>
+      <c r="I15">
+        <v>16.544642162488426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -10124,8 +10391,23 @@
       <c r="D16">
         <v>-5.0760377234837506</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>-6.495954094134504</v>
+      </c>
+      <c r="F16">
+        <v>-11.980274607594765</v>
+      </c>
+      <c r="G16">
+        <v>42.197419593102822</v>
+      </c>
+      <c r="H16">
+        <v>143.52697967337991</v>
+      </c>
+      <c r="I16">
+        <v>77.823313886060859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -10139,8 +10421,23 @@
       <c r="D17">
         <v>-6.1240257309691515</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>-6.216302663233364</v>
+      </c>
+      <c r="F17">
+        <v>-12.748611184179026</v>
+      </c>
+      <c r="G17">
+        <v>38.642418800922215</v>
+      </c>
+      <c r="H17">
+        <v>162.52708712537455</v>
+      </c>
+      <c r="I17">
+        <v>79.24922565673873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -10154,8 +10451,23 @@
       <c r="D18">
         <v>-4.1029693420568947</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>-6.1344117602857295</v>
+      </c>
+      <c r="F18">
+        <v>-10.645663892319135</v>
+      </c>
+      <c r="G18">
+        <v>37.631007644731866</v>
+      </c>
+      <c r="H18">
+        <v>113.3301597082274</v>
+      </c>
+      <c r="I18">
+        <v>65.304885777091656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -10169,8 +10481,23 @@
       <c r="D19">
         <v>3.8944108382565901</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>-5.900235064473236</v>
+      </c>
+      <c r="F19">
+        <v>-2.4141070161931566</v>
+      </c>
+      <c r="G19">
+        <v>34.812773816039488</v>
+      </c>
+      <c r="H19">
+        <v>5.8279126856330254</v>
+      </c>
+      <c r="I19">
+        <v>14.243798866333721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -10184,8 +10511,23 @@
       <c r="D20">
         <v>2.9527143396990141</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>-5.8939231712429319</v>
+      </c>
+      <c r="F20">
+        <v>-3.3494916215204285</v>
+      </c>
+      <c r="G20">
+        <v>34.738330348514339</v>
+      </c>
+      <c r="H20">
+        <v>11.21909412263555</v>
+      </c>
+      <c r="I20">
+        <v>19.741646279963312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -10199,8 +10541,23 @@
       <c r="D21">
         <v>1.5653085938538425</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>-5.8177257051283959</v>
+      </c>
+      <c r="F21">
+        <v>-4.6606999012510641</v>
+      </c>
+      <c r="G21">
+        <v>33.845932380111691</v>
+      </c>
+      <c r="H21">
+        <v>21.722123569521678</v>
+      </c>
+      <c r="I21">
+        <v>27.114673619397692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -10214,8 +10571,23 @@
       <c r="D22">
         <v>-7.3245018938905559</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>-5.8081214410776738</v>
+      </c>
+      <c r="F22">
+        <v>-13.54090612494474</v>
+      </c>
+      <c r="G22">
+        <v>33.734274674306192</v>
+      </c>
+      <c r="H22">
+        <v>183.35613868456599</v>
+      </c>
+      <c r="I22">
+        <v>78.64722719591154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -10229,8 +10601,23 @@
       <c r="D23">
         <v>4.7608182285330258</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>-5.6326071535295341</v>
+      </c>
+      <c r="F23">
+        <v>-1.280071714973019</v>
+      </c>
+      <c r="G23">
+        <v>31.726263345992081</v>
+      </c>
+      <c r="H23">
+        <v>1.6385835954739658</v>
+      </c>
+      <c r="I23">
+        <v>7.2101410987878456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -10244,8 +10631,23 @@
       <c r="D24">
         <v>-6.7903101808042265</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>-5.5447863451263402</v>
+      </c>
+      <c r="F24">
+        <v>-12.743379315907077</v>
+      </c>
+      <c r="G24">
+        <v>30.744655613099518</v>
+      </c>
+      <c r="H24">
+        <v>162.39371638908833</v>
+      </c>
+      <c r="I24">
+        <v>70.659315621607007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -10259,8 +10661,23 @@
       <c r="D25">
         <v>2.4631617634440772</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>-5.5265964510908816</v>
+      </c>
+      <c r="F25">
+        <v>-3.4717174776233151</v>
+      </c>
+      <c r="G25">
+        <v>30.543268333210328</v>
+      </c>
+      <c r="H25">
+        <v>12.052822244435193</v>
+      </c>
+      <c r="I25">
+        <v>19.186781491023201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -10274,8 +10691,23 @@
       <c r="D26">
         <v>-1.9436924958426971</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>-5.4091261154098902</v>
+      </c>
+      <c r="F26">
+        <v>-7.761101401229098</v>
+      </c>
+      <c r="G26">
+        <v>29.258645332409287</v>
+      </c>
+      <c r="H26">
+        <v>60.234694960160269</v>
+      </c>
+      <c r="I26">
+        <v>41.980776273732609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -10289,8 +10721,23 @@
       <c r="D27">
         <v>2.7213104658585507</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>-5.3857248167332727</v>
+      </c>
+      <c r="F27">
+        <v>-3.0726971408512327</v>
+      </c>
+      <c r="G27">
+        <v>29.006031801576643</v>
+      </c>
+      <c r="H27">
+        <v>9.4414677193953409</v>
+      </c>
+      <c r="I27">
+        <v>16.548701245787857</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -10304,8 +10751,23 @@
       <c r="D28">
         <v>7.1383738031727262</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>-5.1724210243264679</v>
+      </c>
+      <c r="F28">
+        <v>1.5576699888697476</v>
+      </c>
+      <c r="G28">
+        <v>26.753939252894469</v>
+      </c>
+      <c r="H28">
+        <v>2.4263357942254795</v>
+      </c>
+      <c r="I28">
+        <v>-8.0569249993922583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -10319,8 +10781,23 @@
       <c r="D29">
         <v>11.454176274128258</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>-5.1292655007273424</v>
+      </c>
+      <c r="F29">
+        <v>5.9166279834244051</v>
+      </c>
+      <c r="G29">
+        <v>26.309364576951715</v>
+      </c>
+      <c r="H29">
+        <v>35.006486694240742</v>
+      </c>
+      <c r="I29">
+        <v>-30.347955796016787</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -10334,8 +10811,23 @@
       <c r="D30">
         <v>-1.4655824998044409</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>-5.1209800039941911</v>
+      </c>
+      <c r="F30">
+        <v>-6.9948452937751426</v>
+      </c>
+      <c r="G30">
+        <v>26.224436201308347</v>
+      </c>
+      <c r="H30">
+        <v>48.927860683848259</v>
+      </c>
+      <c r="I30">
+        <v>35.820462880455381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -10349,8 +10841,23 @@
       <c r="D31">
         <v>2.7049168238590937</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>-5.0265744539501611</v>
+      </c>
+      <c r="F31">
+        <v>-2.7299404200675781</v>
+      </c>
+      <c r="G31">
+        <v>25.266450741104361</v>
+      </c>
+      <c r="H31">
+        <v>7.4525746971187443</v>
+      </c>
+      <c r="I31">
+        <v>13.722248776317659</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -10364,8 +10871,23 @@
       <c r="D32">
         <v>5.3643020692106802</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>-5.0232275134476367</v>
+      </c>
+      <c r="F32">
+        <v>-6.7208234213467222E-2</v>
+      </c>
+      <c r="G32">
+        <v>25.232814651857328</v>
+      </c>
+      <c r="H32">
+        <v>4.5169467460922661E-3</v>
+      </c>
+      <c r="I32">
+        <v>0.33760225123132132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -10379,8 +10901,23 @@
       <c r="D33">
         <v>1.7024888165906304</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>-4.9860109902510885</v>
+      </c>
+      <c r="F33">
+        <v>-3.6918049636369688</v>
+      </c>
+      <c r="G33">
+        <v>24.860305594904641</v>
+      </c>
+      <c r="H33">
+        <v>13.629423889534561</v>
+      </c>
+      <c r="I33">
+        <v>18.407380122557445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -10394,8 +10931,23 @@
       <c r="D34">
         <v>-1.6385854451073101</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>-4.8909506040217821</v>
+      </c>
+      <c r="F34">
+        <v>-6.9378188391056028</v>
+      </c>
+      <c r="G34">
+        <v>23.921397810981034</v>
+      </c>
+      <c r="H34">
+        <v>48.133330244248612</v>
+      </c>
+      <c r="I34">
+        <v>33.932529241717248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -10409,8 +10961,23 @@
       <c r="D35">
         <v>-4.5075125854054932</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>-4.617483737092698</v>
+      </c>
+      <c r="F35">
+        <v>-9.5332791124747018</v>
+      </c>
+      <c r="G35">
+        <v>21.321156062315548</v>
+      </c>
+      <c r="H35">
+        <v>90.88341063634644</v>
+      </c>
+      <c r="I35">
+        <v>44.019761263017443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -10424,8 +10991,23 @@
       <c r="D36">
         <v>0.21636878955177963</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>-4.254213363310555</v>
+      </c>
+      <c r="F36">
+        <v>-4.4461273637352861</v>
+      </c>
+      <c r="G36">
+        <v>18.098331340570105</v>
+      </c>
+      <c r="H36">
+        <v>19.768048534555685</v>
+      </c>
+      <c r="I36">
+        <v>18.914774445783383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -10439,8 +11021,23 @@
       <c r="D37">
         <v>-5.1068695938738529</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>-4.2344500434410293</v>
+      </c>
+      <c r="F37">
+        <v>-9.7496024272913928</v>
+      </c>
+      <c r="G37">
+        <v>17.930567170397733</v>
+      </c>
+      <c r="H37">
+        <v>95.054747490246214</v>
+      </c>
+      <c r="I37">
+        <v>41.284204421776799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -10454,8 +11051,23 @@
       <c r="D38">
         <v>12.352938938420266</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>-4.1926041922124568</v>
+      </c>
+      <c r="F38">
+        <v>7.7520519562312984</v>
+      </c>
+      <c r="G38">
+        <v>17.577929912557469</v>
+      </c>
+      <c r="H38">
+        <v>60.094309532109499</v>
+      </c>
+      <c r="I38">
+        <v>-32.50128552994412</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -10469,8 +11081,23 @@
       <c r="D39">
         <v>3.3641697427810868</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>-4.0518780770071317</v>
+      </c>
+      <c r="F39">
+        <v>-1.0959911242025555</v>
+      </c>
+      <c r="G39">
+        <v>16.417715950931012</v>
+      </c>
+      <c r="H39">
+        <v>1.2011965443307815</v>
+      </c>
+      <c r="I39">
+        <v>4.4408224087507353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -10484,8 +11111,23 @@
       <c r="D40">
         <v>1.1614758932410041</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>-4.0164532583730761</v>
+      </c>
+      <c r="F40">
+        <v>-3.2632601551085827</v>
+      </c>
+      <c r="G40">
+        <v>16.131896776695701</v>
+      </c>
+      <c r="H40">
+        <v>10.648866839919291</v>
+      </c>
+      <c r="I40">
+        <v>13.106731882904898</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -10499,8 +11141,23 @@
       <c r="D41">
         <v>-1.0036671937996289</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>-3.8958724508120213</v>
+      </c>
+      <c r="F41">
+        <v>-5.3078224345881608</v>
+      </c>
+      <c r="G41">
+        <v>15.177822152996065</v>
+      </c>
+      <c r="H41">
+        <v>28.17297899711739</v>
+      </c>
+      <c r="I41">
+        <v>20.678599196714007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -10514,8 +11171,23 @@
       <c r="D42">
         <v>-2.613273863971699</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>-3.8332628355419729</v>
+      </c>
+      <c r="F42">
+        <v>-6.8548194894901826</v>
+      </c>
+      <c r="G42">
+        <v>14.693903966347285</v>
+      </c>
+      <c r="H42">
+        <v>46.98855023349445</v>
+      </c>
+      <c r="I42">
+        <v>26.276324793411515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -10529,8 +11201,23 @@
       <c r="D43">
         <v>3.575371465558419</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>-3.7065520336909685</v>
+      </c>
+      <c r="F43">
+        <v>-0.53946335810906021</v>
+      </c>
+      <c r="G43">
+        <v>13.738527978458654</v>
+      </c>
+      <c r="H43">
+        <v>0.29102071474230412</v>
+      </c>
+      <c r="I43">
+        <v>1.9995490071008963</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -10544,8 +11231,23 @@
       <c r="D44">
         <v>9.1721176431747153</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>-3.7042146323074121</v>
+      </c>
+      <c r="F44">
+        <v>5.0596202208907926</v>
+      </c>
+      <c r="G44">
+        <v>13.721206042200336</v>
+      </c>
+      <c r="H44">
+        <v>25.599756779646992</v>
+      </c>
+      <c r="I44">
+        <v>-18.741919256142133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -10559,8 +11261,23 @@
       <c r="D45">
         <v>-1.397842197548016</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>-3.6618958438339178</v>
+      </c>
+      <c r="F45">
+        <v>-5.4680208313584444</v>
+      </c>
+      <c r="G45">
+        <v>13.409481171088121</v>
+      </c>
+      <c r="H45">
+        <v>29.899251812169894</v>
+      </c>
+      <c r="I45">
+        <v>20.023322756348772</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -10574,8 +11291,23 @@
       <c r="D46">
         <v>-6.5132553572766483</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>-3.572992736735614</v>
+      </c>
+      <c r="F46">
+        <v>-10.494530883988773</v>
+      </c>
+      <c r="G46">
+        <v>12.766277096765453</v>
+      </c>
+      <c r="H46">
+        <v>110.13517847499418</v>
+      </c>
+      <c r="I46">
+        <v>37.49688262393947</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -10589,8 +11321,23 @@
       <c r="D47">
         <v>-2.5629788069636561</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>-3.4644991137611214</v>
+      </c>
+      <c r="F47">
+        <v>-6.4357607107012882</v>
+      </c>
+      <c r="G47">
+        <v>12.002754109251596</v>
+      </c>
+      <c r="H47">
+        <v>41.419015925406349</v>
+      </c>
+      <c r="I47">
+        <v>22.296687278603258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -10604,8 +11351,23 @@
       <c r="D48">
         <v>-0.83831537267542444</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>-3.4111936292902101</v>
+      </c>
+      <c r="F48">
+        <v>-4.6577917919421452</v>
+      </c>
+      <c r="G48">
+        <v>11.636241976510115</v>
+      </c>
+      <c r="H48">
+        <v>21.69502437708362</v>
+      </c>
+      <c r="I48">
+        <v>15.888629687233278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -10619,8 +11381,23 @@
       <c r="D49">
         <v>-6.8241433837101795</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>-3.381498627277324</v>
+      </c>
+      <c r="F49">
+        <v>-10.613924800964014</v>
+      </c>
+      <c r="G49">
+        <v>11.434532966278427</v>
+      </c>
+      <c r="H49">
+        <v>112.65539968051898</v>
+      </c>
+      <c r="I49">
+        <v>35.890972144484557</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -10634,8 +11411,23 @@
       <c r="D50">
         <v>1.4085799193708226</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>-3.3667193383735139</v>
+      </c>
+      <c r="F50">
+        <v>-2.366422208979202</v>
+      </c>
+      <c r="G50">
+        <v>11.334799103378192</v>
+      </c>
+      <c r="H50">
+        <v>5.5999540711500062</v>
+      </c>
+      <c r="I50">
+        <v>7.9670794137268484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -10649,8 +11441,23 @@
       <c r="D51">
         <v>-3.0217563562473515</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>-3.3205033651029225</v>
+      </c>
+      <c r="F51">
+        <v>-6.7505425113267847</v>
+      </c>
+      <c r="G51">
+        <v>11.025742597659832</v>
+      </c>
+      <c r="H51">
+        <v>45.569824197230133</v>
+      </c>
+      <c r="I51">
+        <v>22.415199125130922</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -10664,8 +11471,23 @@
       <c r="D52">
         <v>-9.9260432762093842</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <v>-3.3183524101332296</v>
+      </c>
+      <c r="F52">
+        <v>-13.652678476319124</v>
+      </c>
+      <c r="G52">
+        <v>11.011462717837013</v>
+      </c>
+      <c r="H52">
+        <v>186.39562957774748</v>
+      </c>
+      <c r="I52">
+        <v>45.304398526667633</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -10679,8 +11501,23 @@
       <c r="D53">
         <v>3.0263493044913048</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>-3.3033366526069585</v>
+      </c>
+      <c r="F53">
+        <v>-0.68527013809216442</v>
+      </c>
+      <c r="G53">
+        <v>10.912033040456546</v>
+      </c>
+      <c r="H53">
+        <v>0.46959516216085406</v>
+      </c>
+      <c r="I53">
+        <v>2.2636779640968787</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -10694,8 +11531,23 @@
       <c r="D54">
         <v>3.3809783417382278</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>-3.1113423210626934</v>
+      </c>
+      <c r="F54">
+        <v>-0.1386467693009763</v>
+      </c>
+      <c r="G54">
+        <v>9.6804510388357876</v>
+      </c>
+      <c r="H54">
+        <v>1.9222926637598146E-2</v>
+      </c>
+      <c r="I54">
+        <v>0.43137756100474339</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -10709,8 +11561,23 @@
       <c r="D55">
         <v>3.6428730254556285</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>-3.0616975527664181</v>
+      </c>
+      <c r="F55">
+        <v>0.17289268271269975</v>
+      </c>
+      <c r="G55">
+        <v>9.3739919046158739</v>
+      </c>
+      <c r="H55">
+        <v>2.9891879735594269E-2</v>
+      </c>
+      <c r="I55">
+        <v>-0.5293451035526936</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -10724,8 +11591,23 @@
       <c r="D56">
         <v>-9.6588337328284979E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>-3.050278846785659</v>
+      </c>
+      <c r="F56">
+        <v>-3.5551499740904546</v>
+      </c>
+      <c r="G56">
+        <v>9.3042010431480495</v>
+      </c>
+      <c r="H56">
+        <v>12.63909133827536</v>
+      </c>
+      <c r="I56">
+        <v>10.844198763118698</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -10739,8 +11621,23 @@
       <c r="D57">
         <v>-1.2599457477335818</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>-3.0238580256991554</v>
+      </c>
+      <c r="F57">
+        <v>-4.6920865634092479</v>
+      </c>
+      <c r="G57">
+        <v>9.1437173595851942</v>
+      </c>
+      <c r="H57">
+        <v>22.015676318525607</v>
+      </c>
+      <c r="I57">
+        <v>14.188203612040223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -10754,8 +11651,23 @@
       <c r="D58">
         <v>2.6084535420523025</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>-2.9294024534465279</v>
+      </c>
+      <c r="F58">
+        <v>-0.72923170137073612</v>
+      </c>
+      <c r="G58">
+        <v>8.5813987342585367</v>
+      </c>
+      <c r="H58">
+        <v>0.53177887428405846</v>
+      </c>
+      <c r="I58">
+        <v>2.13621313512642</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -10769,8 +11681,23 @@
       <c r="D59">
         <v>-1.2256236914254259</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>-2.9063422152830753</v>
+      </c>
+      <c r="F59">
+        <v>-4.540248696685012</v>
+      </c>
+      <c r="G59">
+        <v>8.4468250723365337</v>
+      </c>
+      <c r="H59">
+        <v>20.613858227749951</v>
+      </c>
+      <c r="I59">
+        <v>13.195516455059613</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -10784,8 +11711,23 @@
       <c r="D60">
         <v>10.648000170476735</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>-2.8746872521878686</v>
+      </c>
+      <c r="F60">
+        <v>7.3650301283123554</v>
+      </c>
+      <c r="G60">
+        <v>8.2638267978914381</v>
+      </c>
+      <c r="H60">
+        <v>54.243668790948711</v>
+      </c>
+      <c r="I60">
+        <v>-21.172158221839108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -10799,8 +11741,23 @@
       <c r="D61">
         <v>-4.3915747482969891</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>-2.8510631273093168</v>
+      </c>
+      <c r="F61">
+        <v>-7.6509206655828166</v>
+      </c>
+      <c r="G61">
+        <v>8.1285609559027812</v>
+      </c>
+      <c r="H61">
+        <v>58.53658703104221</v>
+      </c>
+      <c r="I61">
+        <v>21.813257799612025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -10814,8 +11771,23 @@
       <c r="D62">
         <v>-5.0907829063362442</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>-2.849880784197012</v>
+      </c>
+      <c r="F62">
+        <v>-8.3489464805097668</v>
+      </c>
+      <c r="G62">
+        <v>8.1218204841353767</v>
+      </c>
+      <c r="H62">
+        <v>69.704907334416419</v>
+      </c>
+      <c r="I62">
+        <v>23.793502143094056</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -10829,8 +11801,23 @@
       <c r="D63">
         <v>3.113171942459303</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>-2.8420318449207116</v>
+      </c>
+      <c r="F63">
+        <v>-0.13714269243791932</v>
+      </c>
+      <c r="G63">
+        <v>8.0771450075434235</v>
+      </c>
+      <c r="H63">
+        <v>1.8808118089121733E-2</v>
+      </c>
+      <c r="I63">
+        <v>0.3897638992067336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -10844,8 +11831,23 @@
       <c r="D64">
         <v>-1.1705139968398726</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>-2.835365248756716</v>
+      </c>
+      <c r="F64">
+        <v>-4.4141620355730993</v>
+      </c>
+      <c r="G64">
+        <v>8.0392960938572333</v>
+      </c>
+      <c r="H64">
+        <v>19.484826476294849</v>
+      </c>
+      <c r="I64">
+        <v>12.515761638045172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -10859,8 +11861,23 @@
       <c r="D65">
         <v>-4.7916046241880395</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>-2.8232325894350652</v>
+      </c>
+      <c r="F65">
+        <v>-8.0231200035996153</v>
+      </c>
+      <c r="G65">
+        <v>7.9706422540482231</v>
+      </c>
+      <c r="H65">
+        <v>64.370454592160286</v>
+      </c>
+      <c r="I65">
+        <v>22.651133863110811</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -10874,8 +11891,23 @@
       <c r="D66">
         <v>10.343410394852981</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>-2.8201084751344752</v>
+      </c>
+      <c r="F66">
+        <v>7.1150191297419951</v>
+      </c>
+      <c r="G66">
+        <v>7.953011811525295</v>
+      </c>
+      <c r="H66">
+        <v>50.623497216594536</v>
+      </c>
+      <c r="I66">
+        <v>-20.065125748529319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -10889,8 +11921,23 @@
       <c r="D67">
         <v>-1.1300585356366355</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>-2.7002143360732589</v>
+      </c>
+      <c r="F67">
+        <v>-4.2385556616864051</v>
+      </c>
+      <c r="G67">
+        <v>7.2911574607355503</v>
+      </c>
+      <c r="H67">
+        <v>17.965354097213879</v>
+      </c>
+      <c r="I67">
+        <v>11.445008761930108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -10904,8 +11951,23 @@
       <c r="D68">
         <v>0.80691506809671409</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>-2.6799598890647758</v>
+      </c>
+      <c r="F68">
+        <v>-2.2813276109445724</v>
+      </c>
+      <c r="G68">
+        <v>7.1821850069960851</v>
+      </c>
+      <c r="H68">
+        <v>5.2044556684580705</v>
+      </c>
+      <c r="I68">
+        <v>6.1138664911474265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -10919,8 +11981,23 @@
       <c r="D69">
         <v>-5.0073595048161224</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>-2.5665549947007094</v>
+      </c>
+      <c r="F69">
+        <v>-7.9821972894933424</v>
+      </c>
+      <c r="G69">
+        <v>6.5872045408231585</v>
+      </c>
+      <c r="H69">
+        <v>63.715473568394863</v>
+      </c>
+      <c r="I69">
+        <v>20.486748322035602</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -10934,8 +12011,23 @@
       <c r="D70">
         <v>0.73878823059203569</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>-2.5191612257913221</v>
+      </c>
+      <c r="F70">
+        <v>-2.1886557851757971</v>
+      </c>
+      <c r="G70">
+        <v>6.3461732815304366</v>
+      </c>
+      <c r="H70">
+        <v>4.7902141459834846</v>
+      </c>
+      <c r="I70">
+        <v>5.5135767906187292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -10949,8 +12041,23 @@
       <c r="D71">
         <v>-3.1136380584939616</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>-2.5061645465029869</v>
+      </c>
+      <c r="F71">
+        <v>-6.0280853949734592</v>
+      </c>
+      <c r="G71">
+        <v>6.2808607341485221</v>
+      </c>
+      <c r="H71">
+        <v>36.337813529092323</v>
+      </c>
+      <c r="I71">
+        <v>15.107373900174938</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -10964,8 +12071,23 @@
       <c r="D72">
         <v>0.49402615331928246</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>-2.4581068464613054</v>
+      </c>
+      <c r="F72">
+        <v>-2.3723634831185336</v>
+      </c>
+      <c r="G72">
+        <v>6.0422892686199434</v>
+      </c>
+      <c r="H72">
+        <v>5.6281084960343009</v>
+      </c>
+      <c r="I72">
+        <v>5.8315229201484566</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -10979,8 +12101,23 @@
       <c r="D73">
         <v>2.0347670215414837</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>-2.3329603754973505</v>
+      </c>
+      <c r="F73">
+        <v>-0.70647614393237745</v>
+      </c>
+      <c r="G73">
+        <v>5.4427041136407386</v>
+      </c>
+      <c r="H73">
+        <v>0.49910854194556131</v>
+      </c>
+      <c r="I73">
+        <v>1.6481808500283994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -10994,8 +12131,23 @@
       <c r="D74">
         <v>1.441247832190129</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>-2.2810918926552404</v>
+      </c>
+      <c r="F74">
+        <v>-1.2481268504416221</v>
+      </c>
+      <c r="G74">
+        <v>5.2033802227374668</v>
+      </c>
+      <c r="H74">
+        <v>1.5578206347933232</v>
+      </c>
+      <c r="I74">
+        <v>2.8470920395477037</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -11009,8 +12161,23 @@
       <c r="D75">
         <v>8.2921133071067743</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>-2.2481499945570249</v>
+      </c>
+      <c r="F75">
+        <v>5.6356805225732387</v>
+      </c>
+      <c r="G75">
+        <v>5.0541783980267514</v>
+      </c>
+      <c r="H75">
+        <v>31.760894952511372</v>
+      </c>
+      <c r="I75">
+        <v>-12.669855136148158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -11024,8 +12191,23 @@
       <c r="D76">
         <v>-1.1363397334207548</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>-2.240655758214416</v>
+      </c>
+      <c r="F76">
+        <v>-3.7852782816116815</v>
+      </c>
+      <c r="G76">
+        <v>5.0205382268194194</v>
+      </c>
+      <c r="H76">
+        <v>14.328331669241084</v>
+      </c>
+      <c r="I76">
+        <v>8.4815055781371829</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -11039,8 +12221,23 @@
       <c r="D77">
         <v>5.3963731261319481</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <v>-2.2118065862741787</v>
+      </c>
+      <c r="F77">
+        <v>2.7762837498812587</v>
+      </c>
+      <c r="G77">
+        <v>4.8920883750858355</v>
+      </c>
+      <c r="H77">
+        <v>7.7077514598547436</v>
+      </c>
+      <c r="I77">
+        <v>-6.1406026833533423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -11054,8 +12251,23 @@
       <c r="D78">
         <v>4.2487954488024116</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>-2.1664500854967628</v>
+      </c>
+      <c r="F78">
+        <v>1.6740625733291381</v>
+      </c>
+      <c r="G78">
+        <v>4.6935059729489303</v>
+      </c>
+      <c r="H78">
+        <v>2.8024854994213757</v>
+      </c>
+      <c r="I78">
+        <v>-3.626773005115842</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -11069,8 +12281,23 @@
       <c r="D79">
         <v>-2.7190935725229792</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>-2.1428214131447021</v>
+      </c>
+      <c r="F79">
+        <v>-5.270197775644192</v>
+      </c>
+      <c r="G79">
+        <v>4.5916836086314579</v>
+      </c>
+      <c r="H79">
+        <v>27.774984594404991</v>
+      </c>
+      <c r="I79">
+        <v>11.293092645157953</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -11084,8 +12311,23 @@
       <c r="D80">
         <v>3.9647375160711817</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>-2.0326906997070182</v>
+      </c>
+      <c r="F80">
+        <v>1.5237640263876528</v>
+      </c>
+      <c r="G80">
+        <v>4.1318314806754071</v>
+      </c>
+      <c r="H80">
+        <v>2.3218568081131115</v>
+      </c>
+      <c r="I80">
+        <v>-3.0973409649863015</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -11099,8 +12341,23 @@
       <c r="D81">
         <v>-5.2707036957144737</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>-1.928517176565947</v>
+      </c>
+      <c r="F81">
+        <v>-7.6075036622569314</v>
+      </c>
+      <c r="G81">
+        <v>3.7191785003098921</v>
+      </c>
+      <c r="H81">
+        <v>57.874111971252624</v>
+      </c>
+      <c r="I81">
+        <v>14.671201483450838</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -11114,8 +12371,23 @@
       <c r="D82">
         <v>5.0600533541000914</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <v>-1.8765759341476951</v>
+      </c>
+      <c r="F82">
+        <v>2.7751946299758856</v>
+      </c>
+      <c r="G82">
+        <v>3.5215372366222946</v>
+      </c>
+      <c r="H82">
+        <v>7.7017052342469929</v>
+      </c>
+      <c r="I82">
+        <v>-5.2078634551886642</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -11129,8 +12401,23 @@
       <c r="D83">
         <v>-8.8501110440120101</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>-1.815466985135572</v>
+      </c>
+      <c r="F83">
+        <v>-11.073860819124093</v>
+      </c>
+      <c r="G83">
+        <v>3.2959203741172431</v>
+      </c>
+      <c r="H83">
+        <v>122.63039344133172</v>
+      </c>
+      <c r="I83">
+        <v>20.104228715106153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -11144,8 +12431,23 @@
       <c r="D84">
         <v>-3.8423081605287734</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>-1.8036344590655062</v>
+      </c>
+      <c r="F84">
+        <v>-6.0542254095707904</v>
+      </c>
+      <c r="G84">
+        <v>3.2530972619285214</v>
+      </c>
+      <c r="H84">
+        <v>36.653645309892603</v>
+      </c>
+      <c r="I84">
+        <v>10.919609571651856</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -11159,8 +12461,23 @@
       <c r="D85">
         <v>10.307940101483837</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>-1.7978864525503013</v>
+      </c>
+      <c r="F85">
+        <v>8.1017708589570248</v>
+      </c>
+      <c r="G85">
+        <v>3.2323956962639069</v>
+      </c>
+      <c r="H85">
+        <v>65.638691051045242</v>
+      </c>
+      <c r="I85">
+        <v>-14.566064068985654</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -11174,8 +12491,23 @@
       <c r="D86">
         <v>-0.3627292244345881</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>-1.719888186926255</v>
+      </c>
+      <c r="F86">
+        <v>-2.4909002013373538</v>
+      </c>
+      <c r="G86">
+        <v>2.9580153755284808</v>
+      </c>
+      <c r="H86">
+        <v>6.2045838130224693</v>
+      </c>
+      <c r="I86">
+        <v>4.2840698310923448</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -11189,8 +12521,23 @@
       <c r="D87">
         <v>-5.858214535692241</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <v>-1.6027452693379018</v>
+      </c>
+      <c r="F87">
+        <v>-7.8692425950066536</v>
+      </c>
+      <c r="G87">
+        <v>2.5687923983850234</v>
+      </c>
+      <c r="H87">
+        <v>61.924979019067052</v>
+      </c>
+      <c r="I87">
+        <v>12.612391342419228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -11204,8 +12551,23 @@
       <c r="D88">
         <v>-9.8133568826597184</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <v>-1.5585074470436666</v>
+      </c>
+      <c r="F88">
+        <v>-11.780147119679896</v>
+      </c>
+      <c r="G88">
+        <v>2.4289454624905673</v>
+      </c>
+      <c r="H88">
+        <v>138.77186616130254</v>
+      </c>
+      <c r="I88">
+        <v>18.359447013291117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -11219,8 +12581,23 @@
       <c r="D89">
         <v>1.2504699498094851</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <v>-1.5585074470436666</v>
+      </c>
+      <c r="F89">
+        <v>-0.71632028721069219</v>
+      </c>
+      <c r="G89">
+        <v>2.4289454624905673</v>
+      </c>
+      <c r="H89">
+        <v>0.51311475386960859</v>
+      </c>
+      <c r="I89">
+        <v>1.1163905020863218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -11234,8 +12611,23 @@
       <c r="D90">
         <v>10.515168469282798</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>-1.535147075628629</v>
+      </c>
+      <c r="F90">
+        <v>8.5717386036776588</v>
+      </c>
+      <c r="G90">
+        <v>2.3566765438111315</v>
+      </c>
+      <c r="H90">
+        <v>73.474702689777814</v>
+      </c>
+      <c r="I90">
+        <v>-13.158879450488785</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -11249,8 +12641,23 @@
       <c r="D91">
         <v>-5.8001091929327231</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <v>-1.5321912178478669</v>
+      </c>
+      <c r="F91">
+        <v>-7.7405832007571007</v>
+      </c>
+      <c r="G91">
+        <v>2.3476099280501295</v>
+      </c>
+      <c r="H91">
+        <v>59.916628287843039</v>
+      </c>
+      <c r="I91">
+        <v>11.860053601220763</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -11264,8 +12671,23 @@
       <c r="D92">
         <v>7.4783201853279024E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>-1.4249481500883121</v>
+      </c>
+      <c r="F92">
+        <v>-1.7584477382115438</v>
+      </c>
+      <c r="G92">
+        <v>2.0304772304401029</v>
+      </c>
+      <c r="H92">
+        <v>3.0921384480212941</v>
+      </c>
+      <c r="I92">
+        <v>2.5056968515915159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -11279,8 +12701,23 @@
       <c r="D93">
         <v>-1.2201041954540415</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>-1.3419476636045147</v>
+      </c>
+      <c r="F93">
+        <v>-2.9703346490350668</v>
+      </c>
+      <c r="G93">
+        <v>1.8008235318536157</v>
+      </c>
+      <c r="H93">
+        <v>8.8228879272582734</v>
+      </c>
+      <c r="I93">
+        <v>3.9860336423961442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -11294,8 +12731,23 @@
       <c r="D94">
         <v>2.3981613139767433</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>-1.3196741383580957</v>
+      </c>
+      <c r="F94">
+        <v>0.67020438564213691</v>
+      </c>
+      <c r="G94">
+        <v>1.7415398314511823</v>
+      </c>
+      <c r="H94">
+        <v>0.44917391853395416</v>
+      </c>
+      <c r="I94">
+        <v>-0.88445139514610394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -11309,8 +12761,23 @@
       <c r="D95">
         <v>-6.916548045410309</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <v>-1.3116114678268787</v>
+      </c>
+      <c r="F95">
+        <v>-8.6364423032136983</v>
+      </c>
+      <c r="G95">
+        <v>1.7203246425349792</v>
+      </c>
+      <c r="H95">
+        <v>74.588135656739126</v>
+      </c>
+      <c r="I95">
+        <v>11.327656766120267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -11324,8 +12791,23 @@
       <c r="D96">
         <v>-4.6071818360360339</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>-1.2540540956251789</v>
+      </c>
+      <c r="F96">
+        <v>-6.2695187216377235</v>
+      </c>
+      <c r="G96">
+        <v>1.5726516747542854</v>
+      </c>
+      <c r="H96">
+        <v>39.306865000965914</v>
+      </c>
+      <c r="I96">
+        <v>7.8623156304685233</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -11339,8 +12821,23 @@
       <c r="D97">
         <v>-0.36579876905307174</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>-1.2149685608164873</v>
+      </c>
+      <c r="F97">
+        <v>-1.9890501198460697</v>
+      </c>
+      <c r="G97">
+        <v>1.4761486037724865</v>
+      </c>
+      <c r="H97">
+        <v>3.9563203792596644</v>
+      </c>
+      <c r="I97">
+        <v>2.416633361501241</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -11354,8 +12851,23 @@
       <c r="D98">
         <v>13.465250958688557</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>-1.1903576341865119</v>
+      </c>
+      <c r="F98">
+        <v>11.866610534525535</v>
+      </c>
+      <c r="G98">
+        <v>1.4169512972661096</v>
+      </c>
+      <c r="H98">
+        <v>140.81644557811239</v>
+      </c>
+      <c r="I98">
+        <v>-14.125510441690555</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -11369,8 +12881,23 @@
       <c r="D99">
         <v>-2.5861254471237771</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>-1.1333186739648227</v>
+      </c>
+      <c r="F99">
+        <v>-4.1277269110651105</v>
+      </c>
+      <c r="G99">
+        <v>1.284411216757384</v>
+      </c>
+      <c r="H99">
+        <v>17.03812945233112</v>
+      </c>
+      <c r="I99">
+        <v>4.6780299893372241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -11384,8 +12911,23 @@
       <c r="D100">
         <v>8.8537717601866461</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>-1.1136144712509122</v>
+      </c>
+      <c r="F100">
+        <v>7.3318744989592233</v>
+      </c>
+      <c r="G100">
+        <v>1.2401371905794487</v>
+      </c>
+      <c r="H100">
+        <v>53.75638366848856</v>
+      </c>
+      <c r="I100">
+        <v>-8.1648815434365218</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -11399,8 +12941,23 @@
       <c r="D101">
         <v>-7.2448983701178804</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E101">
+        <v>-1.1117090798506979</v>
+      </c>
+      <c r="F101">
+        <v>-8.764890239945089</v>
+      </c>
+      <c r="G101">
+        <v>1.2358970782224854</v>
+      </c>
+      <c r="H101">
+        <v>76.823300918284673</v>
+      </c>
+      <c r="I101">
+        <v>9.7440080636417168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -11414,8 +12971,23 @@
       <c r="D102">
         <v>4.6856030166964047E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <v>-1.1107541104138363</v>
+      </c>
+      <c r="F102">
+        <v>-1.472180870223383</v>
+      </c>
+      <c r="G102">
+        <v>1.2337746938012328</v>
+      </c>
+      <c r="H102">
+        <v>2.1673165146516773</v>
+      </c>
+      <c r="I102">
+        <v>1.6352309528732412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -11429,8 +13001,23 @@
       <c r="D103">
         <v>-2.4588416636106558</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <v>-1.0098001985170413</v>
+      </c>
+      <c r="F103">
+        <v>-3.8769246521042078</v>
+      </c>
+      <c r="G103">
+        <v>1.019696440925056</v>
+      </c>
+      <c r="H103">
+        <v>15.030544758093333</v>
+      </c>
+      <c r="I103">
+        <v>3.9149192833304403</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -11444,8 +13031,23 @@
       <c r="D104">
         <v>6.5991002884402405</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <v>-0.94871853434597142</v>
+      </c>
+      <c r="F104">
+        <v>5.2420989641177584</v>
+      </c>
+      <c r="G104">
+        <v>0.90006685741156811</v>
+      </c>
+      <c r="H104">
+        <v>27.479601549604475</v>
+      </c>
+      <c r="I104">
+        <v>-4.9732764461343351</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -11459,8 +13061,23 @@
       <c r="D105">
         <v>1.668479399086209</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <v>-0.92453052275232039</v>
+      </c>
+      <c r="F105">
+        <v>0.33566608635737794</v>
+      </c>
+      <c r="G105">
+        <v>0.85475668750067879</v>
+      </c>
+      <c r="H105">
+        <v>0.11267172153047871</v>
+      </c>
+      <c r="I105">
+        <v>-0.31033354229021215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -11474,8 +13091,23 @@
       <c r="D106">
         <v>3.1887452678347472</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <v>-0.80907471783575602</v>
+      </c>
+      <c r="F106">
+        <v>1.9713877600224805</v>
+      </c>
+      <c r="G106">
+        <v>0.65460189904100818</v>
+      </c>
+      <c r="H106">
+        <v>3.886369700366453</v>
+      </c>
+      <c r="I106">
+        <v>-1.5949999956850516</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -11489,8 +13121,23 @@
       <c r="D107">
         <v>1.946989414136624</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <v>-0.79971601735451259</v>
+      </c>
+      <c r="F107">
+        <v>0.73899060680560069</v>
+      </c>
+      <c r="G107">
+        <v>0.63954570841336311</v>
+      </c>
+      <c r="H107">
+        <v>0.54610711694690994</v>
+      </c>
+      <c r="I107">
+        <v>-0.59098262493696951</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -11504,8 +13151,23 @@
       <c r="D108">
         <v>-0.28492195269791409</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <v>-0.76264501331024803</v>
+      </c>
+      <c r="F108">
+        <v>-1.4558497559846728</v>
+      </c>
+      <c r="G108">
+        <v>0.58162741632698844</v>
+      </c>
+      <c r="H108">
+        <v>2.1194985120006313</v>
+      </c>
+      <c r="I108">
+        <v>1.1102965565306522</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -11519,8 +13181,23 @@
       <c r="D109">
         <v>10.685243978514336</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <v>-0.75548274253378622</v>
+      </c>
+      <c r="F109">
+        <v>9.5214784460040391</v>
+      </c>
+      <c r="G109">
+        <v>0.57075417426637109</v>
+      </c>
+      <c r="H109">
+        <v>90.658551797719497</v>
+      </c>
+      <c r="I109">
+        <v>-7.193312649363464</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -11534,8 +13211,23 @@
       <c r="D110">
         <v>9.388350008521229</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <v>-0.66913986302097328</v>
+      </c>
+      <c r="F110">
+        <v>8.3109273555237451</v>
+      </c>
+      <c r="G110">
+        <v>0.44774815628372688</v>
+      </c>
+      <c r="H110">
+        <v>69.071513508792904</v>
+      </c>
+      <c r="I110">
+        <v>-5.5611727922524183</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -11549,8 +13241,23 @@
       <c r="D111">
         <v>1.6079411579994485</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <v>-0.62825352870277129</v>
+      </c>
+      <c r="F111">
+        <v>0.5714048393201665</v>
+      </c>
+      <c r="G111">
+        <v>0.39470249632748389</v>
+      </c>
+      <c r="H111">
+        <v>0.32650349039850529</v>
+      </c>
+      <c r="I111">
+        <v>-0.35898710662073463</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -11564,8 +13271,23 @@
       <c r="D112">
         <v>7.1004251367412508</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112">
+        <v>-0.60566622778424062</v>
+      </c>
+      <c r="F112">
+        <v>6.0864761189804995</v>
+      </c>
+      <c r="G112">
+        <v>0.36683157947839162</v>
+      </c>
+      <c r="H112">
+        <v>37.045191546919924</v>
+      </c>
+      <c r="I112">
+        <v>-3.686373031481784</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -11579,8 +13301,23 @@
       <c r="D113">
         <v>-1.1135853128507733</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <v>-0.60504777138703503</v>
+      </c>
+      <c r="F113">
+        <v>-2.126915874214319</v>
+      </c>
+      <c r="G113">
+        <v>0.36608280566041779</v>
+      </c>
+      <c r="H113">
+        <v>4.5237711359848607</v>
+      </c>
+      <c r="I113">
+        <v>1.2868857096210811</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -11594,8 +13331,23 @@
       <c r="D114">
         <v>4.0136342249752488</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114">
+        <v>-0.59638938182615675</v>
+      </c>
+      <c r="F114">
+        <v>3.0089620531725814</v>
+      </c>
+      <c r="G114">
+        <v>0.35568029475498536</v>
+      </c>
+      <c r="H114">
+        <v>9.0538526374325556</v>
+      </c>
+      <c r="I114">
+        <v>-1.7945130188299592</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -11609,8 +13361,23 @@
       <c r="D115">
         <v>2.3314328245760407</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115">
+        <v>-0.58433857702766545</v>
+      </c>
+      <c r="F115">
+        <v>1.3388114575718646</v>
+      </c>
+      <c r="G115">
+        <v>0.34145157260271691</v>
+      </c>
+      <c r="H115">
+        <v>1.7924161189257006</v>
+      </c>
+      <c r="I115">
+        <v>-0.78231918202587802</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -11624,8 +13391,23 @@
       <c r="D116">
         <v>3.5748826121562161</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <v>-0.51920056648668833</v>
+      </c>
+      <c r="F116">
+        <v>2.647399255693017</v>
+      </c>
+      <c r="G116">
+        <v>0.26956922824009805</v>
+      </c>
+      <c r="H116">
+        <v>7.0087228190439408</v>
+      </c>
+      <c r="I116">
+        <v>-1.3745311932722515</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -11639,8 +13421,23 @@
       <c r="D117">
         <v>-2.7818373382615391</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117">
+        <v>-0.36074839954380877</v>
+      </c>
+      <c r="F117">
+        <v>-3.5508685277818586</v>
+      </c>
+      <c r="G117">
+        <v>0.13013940777341948</v>
+      </c>
+      <c r="H117">
+        <v>12.608667301591703</v>
+      </c>
+      <c r="I117">
+        <v>1.2809701383877861</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -11654,8 +13451,23 @@
       <c r="D118">
         <v>3.5438347367744427</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <v>-0.35736962672672234</v>
+      </c>
+      <c r="F118">
+        <v>2.7781823200712097</v>
+      </c>
+      <c r="G118">
+        <v>0.12771305010679687</v>
+      </c>
+      <c r="H118">
+        <v>7.7182970035562493</v>
+      </c>
+      <c r="I118">
+        <v>-0.99283797870262769</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -11669,8 +13481,23 @@
       <c r="D119">
         <v>0.7325979822780937</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <v>-0.30948927815188654</v>
+      </c>
+      <c r="F119">
+        <v>1.4825914149696473E-2</v>
+      </c>
+      <c r="G119">
+        <v>9.5783613290975789E-2</v>
+      </c>
+      <c r="H119">
+        <v>2.1980773037417008E-4</v>
+      </c>
+      <c r="I119">
+        <v>-4.588461468131402E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -11684,8 +13511,23 @@
       <c r="D120">
         <v>7.5012621891801246</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120">
+        <v>-0.28495111109805293</v>
+      </c>
+      <c r="F120">
+        <v>6.8080282881055609</v>
+      </c>
+      <c r="G120">
+        <v>8.1197135716014904E-2</v>
+      </c>
+      <c r="H120">
+        <v>46.349249171645532</v>
+      </c>
+      <c r="I120">
+        <v>-1.9399552250826548</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -11699,8 +13541,23 @@
       <c r="D121">
         <v>4.0088934838422574</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121">
+        <v>-0.1483086271036882</v>
+      </c>
+      <c r="F121">
+        <v>3.4523020667620585</v>
+      </c>
+      <c r="G121">
+        <v>2.1995448873380837E-2</v>
+      </c>
+      <c r="H121">
+        <v>11.918389560169581</v>
+      </c>
+      <c r="I121">
+        <v>-0.51200617986870622</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -11714,8 +13571,23 @@
       <c r="D122">
         <v>7.4918489190167747</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122">
+        <v>-0.13331105947145261</v>
+      </c>
+      <c r="F122">
+        <v>6.9502550695688115</v>
+      </c>
+      <c r="G122">
+        <v>1.7771838577401174E-2</v>
+      </c>
+      <c r="H122">
+        <v>48.306045532066967</v>
+      </c>
+      <c r="I122">
+        <v>-0.92654586692105279</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -11729,8 +13601,23 @@
       <c r="D123">
         <v>6.7855125962523744</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E123">
+        <v>-0.13300183127284981</v>
+      </c>
+      <c r="F123">
+        <v>6.2442279750030139</v>
+      </c>
+      <c r="G123">
+        <v>1.7689487121931611E-2</v>
+      </c>
+      <c r="H123">
+        <v>38.990383003810237</v>
+      </c>
+      <c r="I123">
+        <v>-0.83049375556055949</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -11744,8 +13631,23 @@
       <c r="D124">
         <v>1.3010492239118321</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124">
+        <v>-8.3725408330792561E-2</v>
+      </c>
+      <c r="F124">
+        <v>0.80904102560452884</v>
+      </c>
+      <c r="G124">
+        <v>7.009944000157948E-3</v>
+      </c>
+      <c r="H124">
+        <v>0.6545473811112279</v>
+      </c>
+      <c r="I124">
+        <v>-6.7737290225102373E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -11759,8 +13661,23 @@
       <c r="D125">
         <v>0.57095803640550002</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125">
+        <v>-2.1606920199701563E-2</v>
+      </c>
+      <c r="F125">
+        <v>0.14106832622928778</v>
+      </c>
+      <c r="G125">
+        <v>4.668590005162714E-4</v>
+      </c>
+      <c r="H125">
+        <v>1.9900272665132761E-2</v>
+      </c>
+      <c r="I125">
+        <v>-3.0480520675416878E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -11774,8 +13691,23 @@
       <c r="D126">
         <v>-0.26768134375743102</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126">
+        <v>-2.9440889193210751E-3</v>
+      </c>
+      <c r="F126">
+        <v>-0.67890822265326278</v>
+      </c>
+      <c r="G126">
+        <v>8.6676595648691349E-6</v>
+      </c>
+      <c r="H126">
+        <v>0.46091637478621222</v>
+      </c>
+      <c r="I126">
+        <v>1.9987661755494364E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -11789,8 +13721,23 @@
       <c r="D127">
         <v>-8.2428641690057702E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127">
+        <v>1.1134889064123854E-2</v>
+      </c>
+      <c r="F127">
+        <v>-0.47957654260244453</v>
+      </c>
+      <c r="G127">
+        <v>1.2398575447034499E-4</v>
+      </c>
+      <c r="H127">
+        <v>0.22999366021451428</v>
+      </c>
+      <c r="I127">
+        <v>-5.340031599634287E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -11804,8 +13751,23 @@
       <c r="D128">
         <v>-4.0570739656686783</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128">
+        <v>3.0411629268201068E-2</v>
+      </c>
+      <c r="F128">
+        <v>-4.4349451263769879</v>
+      </c>
+      <c r="G128">
+        <v>9.2486719474650387E-4</v>
+      </c>
+      <c r="H128">
+        <v>19.668738273974999</v>
+      </c>
+      <c r="I128">
+        <v>-0.1348739070081921</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -11819,8 +13781,23 @@
       <c r="D129">
         <v>2.2939730115467682</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129">
+        <v>0.12009690181002952</v>
+      </c>
+      <c r="F129">
+        <v>2.0057871233802871</v>
+      </c>
+      <c r="G129">
+        <v>1.4423265824367872E-2</v>
+      </c>
+      <c r="H129">
+        <v>4.0231819843181666</v>
+      </c>
+      <c r="I129">
+        <v>0.24088881920842392</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -11834,8 +13811,23 @@
       <c r="D130">
         <v>-3.2954176276689395</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130">
+        <v>0.15041490769363008</v>
+      </c>
+      <c r="F130">
+        <v>-3.5532855099518201</v>
+      </c>
+      <c r="G130">
+        <v>2.262464445648326E-2</v>
+      </c>
+      <c r="H130">
+        <v>12.625837915233566</v>
+      </c>
+      <c r="I130">
+        <v>-0.53446711198851637</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -11849,8 +13841,23 @@
       <c r="D131">
         <v>1.2777206848113565</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131">
+        <v>0.18288386854692362</v>
+      </c>
+      <c r="F131">
+        <v>1.0523217633817694</v>
+      </c>
+      <c r="G131">
+        <v>3.3446509374688439E-2</v>
+      </c>
+      <c r="H131">
+        <v>1.1073810936869166</v>
+      </c>
+      <c r="I131">
+        <v>0.19245267504337837</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -11864,8 +13871,23 @@
       <c r="D132">
         <v>3.1508704978477908</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132">
+        <v>0.20280180251575075</v>
+      </c>
+      <c r="F132">
+        <v>2.9453895103870309</v>
+      </c>
+      <c r="G132">
+        <v>4.1128571103637566E-2</v>
+      </c>
+      <c r="H132">
+        <v>8.6753193678979539</v>
+      </c>
+      <c r="I132">
+        <v>0.59733030181747448</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -11879,8 +13901,23 @@
       <c r="D133">
         <v>-7.2789362093317322</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133">
+        <v>0.20893179680570029</v>
+      </c>
+      <c r="F133">
+        <v>-7.4782872025025426</v>
+      </c>
+      <c r="G133">
+        <v>4.3652495716458434E-2</v>
+      </c>
+      <c r="H133">
+        <v>55.924779483113305</v>
+      </c>
+      <c r="I133">
+        <v>-1.5624519822479301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -11894,8 +13931,23 @@
       <c r="D134">
         <v>0.74226704782631714</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134">
+        <v>0.31784378734300844</v>
+      </c>
+      <c r="F134">
+        <v>0.6518280451928149</v>
+      </c>
+      <c r="G134">
+        <v>0.10102467315254758</v>
+      </c>
+      <c r="H134">
+        <v>0.42487980049988633</v>
+      </c>
+      <c r="I134">
+        <v>0.20717949458047397</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -11909,8 +13961,23 @@
       <c r="D135">
         <v>7.8372750067501329</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135">
+        <v>0.33258669645874761</v>
+      </c>
+      <c r="F135">
+        <v>7.7615789132323698</v>
+      </c>
+      <c r="G135">
+        <v>0.11061391066134312</v>
+      </c>
+      <c r="H135">
+        <v>60.242107226333374</v>
+      </c>
+      <c r="I135">
+        <v>2.5813978900558303</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -11924,8 +13991,23 @@
       <c r="D136">
         <v>3.6904225453326944</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136">
+        <v>0.36147224818705581</v>
+      </c>
+      <c r="F136">
+        <v>3.6436120035432396</v>
+      </c>
+      <c r="G136">
+        <v>0.13066218620940448</v>
+      </c>
+      <c r="H136">
+        <v>13.27590843236438</v>
+      </c>
+      <c r="I136">
+        <v>1.3170646224421176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -11939,8 +14021,23 @@
       <c r="D137">
         <v>-1.8005039237323217</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137">
+        <v>0.43193080273340456</v>
+      </c>
+      <c r="F137">
+        <v>-1.7768559109754278</v>
+      </c>
+      <c r="G137">
+        <v>0.18656421834992323</v>
+      </c>
+      <c r="H137">
+        <v>3.1572169283683174</v>
+      </c>
+      <c r="I137">
+        <v>-0.76747879996921142</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -11954,8 +14051,23 @@
       <c r="D138">
         <v>5.4605038712907117</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138">
+        <v>0.45596420022775419</v>
+      </c>
+      <c r="F138">
+        <v>5.5081852815419552</v>
+      </c>
+      <c r="G138">
+        <v>0.20790335188933551</v>
+      </c>
+      <c r="H138">
+        <v>30.34010509579543</v>
+      </c>
+      <c r="I138">
+        <v>2.5115352966045648</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -11969,8 +14081,23 @@
       <c r="D139">
         <v>0.62682374846190214</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139">
+        <v>0.48340365538024344</v>
+      </c>
+      <c r="F139">
+        <v>0.70194461386563489</v>
+      </c>
+      <c r="G139">
+        <v>0.23367909403498116</v>
+      </c>
+      <c r="H139">
+        <v>0.49272624093497525</v>
+      </c>
+      <c r="I139">
+        <v>0.33932259221712141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -11984,8 +14111,23 @@
       <c r="D140">
         <v>-1.8201035345555283</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E140">
+        <v>0.48587293349555694</v>
+      </c>
+      <c r="F140">
+        <v>-1.7425133910364821</v>
+      </c>
+      <c r="G140">
+        <v>0.23607250750357789</v>
+      </c>
+      <c r="H140">
+        <v>3.0363529179414597</v>
+      </c>
+      <c r="I140">
+        <v>-0.8466400929581861</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -11999,8 +14141,23 @@
       <c r="D141">
         <v>-0.72216153057524934</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141">
+        <v>0.49389467676519416</v>
+      </c>
+      <c r="F141">
+        <v>-0.63654964378656587</v>
+      </c>
+      <c r="G141">
+        <v>0.24393195173699561</v>
+      </c>
+      <c r="H141">
+        <v>0.40519544900480386</v>
+      </c>
+      <c r="I141">
+        <v>-0.31438848056296542</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -12014,8 +14171,23 @@
       <c r="D142">
         <v>4.3194745558139402</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142">
+        <v>0.5934206819802057</v>
+      </c>
+      <c r="F142">
+        <v>4.5046124478176353</v>
+      </c>
+      <c r="G142">
+        <v>0.35214810580185241</v>
+      </c>
+      <c r="H142">
+        <v>20.291533305033589</v>
+      </c>
+      <c r="I142">
+        <v>2.6731301908404648</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -12029,8 +14201,23 @@
       <c r="D143">
         <v>7.408289093291387</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143">
+        <v>0.64394311266369186</v>
+      </c>
+      <c r="F143">
+        <v>7.6439494159785681</v>
+      </c>
+      <c r="G143">
+        <v>0.41466273234700413</v>
+      </c>
+      <c r="H143">
+        <v>58.429962674039096</v>
+      </c>
+      <c r="I143">
+        <v>4.9222685799690487</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -12044,8 +14231,23 @@
       <c r="D144">
         <v>-4.0799818634695839</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144">
+        <v>0.67374725404079072</v>
+      </c>
+      <c r="F144">
+        <v>-3.8145173994053039</v>
+      </c>
+      <c r="G144">
+        <v>0.45393536232750581</v>
+      </c>
+      <c r="H144">
+        <v>14.550542990365802</v>
+      </c>
+      <c r="I144">
+        <v>-2.5700206233401417</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -12059,8 +14261,23 @@
       <c r="D145">
         <v>-8.8944034359883517</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E145">
+        <v>0.73441055064904504</v>
+      </c>
+      <c r="F145">
+        <v>-8.5682756753158174</v>
+      </c>
+      <c r="G145">
+        <v>0.53935885690463359</v>
+      </c>
+      <c r="H145">
+        <v>73.415348048208728</v>
+      </c>
+      <c r="I145">
+        <v>-6.2926320568215077</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -12074,8 +14291,23 @@
       <c r="D146">
         <v>-3.6229494071449153</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146">
+        <v>0.7537327655882109</v>
+      </c>
+      <c r="F146">
+        <v>-3.2774994315332151</v>
+      </c>
+      <c r="G146">
+        <v>0.56811308192125287</v>
+      </c>
+      <c r="H146">
+        <v>10.742002523700549</v>
+      </c>
+      <c r="I146">
+        <v>-2.4703587107433194</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -12089,8 +14321,23 @@
       <c r="D147">
         <v>-7.0857822720427066</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147">
+        <v>0.7777570681355428</v>
+      </c>
+      <c r="F147">
+        <v>-6.7163079938836745</v>
+      </c>
+      <c r="G147">
+        <v>0.60490605703479539</v>
+      </c>
+      <c r="H147">
+        <v>45.108793068705751</v>
+      </c>
+      <c r="I147">
+        <v>-5.2236560140182755</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -12104,8 +14351,23 @@
       <c r="D148">
         <v>-3.3397441256965976</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148">
+        <v>0.78712486356380396</v>
+      </c>
+      <c r="F148">
+        <v>-2.9609020521093043</v>
+      </c>
+      <c r="G148">
+        <v>0.61956555084033704</v>
+      </c>
+      <c r="H148">
+        <v>8.7669409621850889</v>
+      </c>
+      <c r="I148">
+        <v>-2.3305996237923234</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -12119,8 +14381,23 @@
       <c r="D149">
         <v>-6.6404481913195923</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149">
+        <v>0.85094410678721033</v>
+      </c>
+      <c r="F149">
+        <v>-6.1977868745088927</v>
+      </c>
+      <c r="G149">
+        <v>0.72410587287588324</v>
+      </c>
+      <c r="H149">
+        <v>38.412562141834705</v>
+      </c>
+      <c r="I149">
+        <v>-5.2739702159864654</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -12134,8 +14411,23 @@
       <c r="D150">
         <v>0.67079781729262322</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E150">
+        <v>0.92316708105499856</v>
+      </c>
+      <c r="F150">
+        <v>1.1856821083711111</v>
+      </c>
+      <c r="G150">
+        <v>0.8522374595436063</v>
+      </c>
+      <c r="H150">
+        <v>1.4058420621113632</v>
+      </c>
+      <c r="I150">
+        <v>1.094582691044095</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -12149,8 +14441,23 @@
       <c r="D151">
         <v>0.35084326555079315</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E151">
+        <v>0.92505883003468625</v>
+      </c>
+      <c r="F151">
+        <v>0.86761930560896872</v>
+      </c>
+      <c r="G151">
+        <v>0.85573383902514255</v>
+      </c>
+      <c r="H151">
+        <v>0.75276325946538902</v>
+      </c>
+      <c r="I151">
+        <v>0.80259889976213949</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -12164,8 +14471,23 @@
       <c r="D152">
         <v>-5.8264276958652772</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E152">
+        <v>1.0235389163426589</v>
+      </c>
+      <c r="F152">
+        <v>-5.211171569499129</v>
+      </c>
+      <c r="G152">
+        <v>1.0476319132679046</v>
+      </c>
+      <c r="H152">
+        <v>27.156309126756014</v>
+      </c>
+      <c r="I152">
+        <v>-5.3338369011208115</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -12179,8 +14501,23 @@
       <c r="D153">
         <v>8.3196027844678611E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153">
+        <v>1.1010005800926592</v>
+      </c>
+      <c r="F153">
+        <v>0.77591381796082715</v>
+      </c>
+      <c r="G153">
+        <v>1.2122022773643721</v>
+      </c>
+      <c r="H153">
+        <v>0.60204225290254765</v>
+      </c>
+      <c r="I153">
+        <v>0.85428156367678065</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -12194,8 +14531,23 @@
       <c r="D154">
         <v>-4.3517786707525374</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154">
+        <v>1.1542605898284819</v>
+      </c>
+      <c r="F154">
+        <v>-3.6058008709005662</v>
+      </c>
+      <c r="G154">
+        <v>1.332317509231195</v>
+      </c>
+      <c r="H154">
+        <v>13.001799920587281</v>
+      </c>
+      <c r="I154">
+        <v>-4.162033840049741</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -12209,8 +14561,23 @@
       <c r="D155">
         <v>-6.4284222389687784</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E155">
+        <v>1.1561796236492228</v>
+      </c>
+      <c r="F155">
+        <v>-5.6805254052960663</v>
+      </c>
+      <c r="G155">
+        <v>1.3367513221416585</v>
+      </c>
+      <c r="H155">
+        <v>32.268368880214041</v>
+      </c>
+      <c r="I155">
+        <v>-6.5677077252250546</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -12224,8 +14591,23 @@
       <c r="D156">
         <v>0.51786628318950534</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E156">
+        <v>1.1568162699404638</v>
+      </c>
+      <c r="F156">
+        <v>1.2663997631534585</v>
+      </c>
+      <c r="G156">
+        <v>1.3382238823989681</v>
+      </c>
+      <c r="H156">
+        <v>1.6037683601151358</v>
+      </c>
+      <c r="I156">
+        <v>1.4649918502646706</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -12239,8 +14621,23 @@
       <c r="D157">
         <v>-7.694188752793707</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E157">
+        <v>1.1891351641679648</v>
+      </c>
+      <c r="F157">
+        <v>-6.9133363786022528</v>
+      </c>
+      <c r="G157">
+        <v>1.4140424386607726</v>
+      </c>
+      <c r="H157">
+        <v>47.79421988370531</v>
+      </c>
+      <c r="I157">
+        <v>-8.2208913895175542</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -12254,8 +14651,23 @@
       <c r="D158">
         <v>-0.65458607423352078</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E158">
+        <v>1.2591617087309714</v>
+      </c>
+      <c r="F158">
+        <v>0.19629284452093998</v>
+      </c>
+      <c r="G158">
+        <v>1.5854882087342999</v>
+      </c>
+      <c r="H158">
+        <v>3.8530880810121917E-2</v>
+      </c>
+      <c r="I158">
+        <v>0.2471644335186497</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -12269,8 +14681,23 @@
       <c r="D159">
         <v>-0.21981350073474459</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E159">
+        <v>1.2623858674487565</v>
+      </c>
+      <c r="F159">
+        <v>0.63428957673750119</v>
+      </c>
+      <c r="G159">
+        <v>1.5936180783343494</v>
+      </c>
+      <c r="H159">
+        <v>0.40232326715783839</v>
+      </c>
+      <c r="I159">
+        <v>0.80071819754347506</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -12284,8 +14711,23 @@
       <c r="D160">
         <v>-4.3624027057376225</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E160">
+        <v>1.2862510084232781</v>
+      </c>
+      <c r="F160">
+        <v>-3.484434487290855</v>
+      </c>
+      <c r="G160">
+        <v>1.6544416566698998</v>
+      </c>
+      <c r="H160">
+        <v>12.141283696221883</v>
+      </c>
+      <c r="I160">
+        <v>-4.4818573730627103</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -12299,8 +14741,23 @@
       <c r="D161">
         <v>8.5347210188047029</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E161">
+        <v>1.3292655603436287</v>
+      </c>
+      <c r="F161">
+        <v>9.455703789171821</v>
+      </c>
+      <c r="G161">
+        <v>1.7669469299156613</v>
+      </c>
+      <c r="H161">
+        <v>89.410334148558334</v>
+      </c>
+      <c r="I161">
+        <v>12.569141395756855</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -12314,8 +14771,23 @@
       <c r="D162">
         <v>-1.6638068700558506E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E162">
+        <v>1.388050750392722</v>
+      </c>
+      <c r="F162">
+        <v>0.96312989171565278</v>
+      </c>
+      <c r="G162">
+        <v>1.9266848856657985</v>
+      </c>
+      <c r="H162">
+        <v>0.92761918831620505</v>
+      </c>
+      <c r="I162">
+        <v>1.3368731689215729</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -12329,8 +14801,23 @@
       <c r="D163">
         <v>-2.2228107354749227</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E163">
+        <v>1.4536935304931831</v>
+      </c>
+      <c r="F163">
+        <v>-1.1773999949582503</v>
+      </c>
+      <c r="G163">
+        <v>2.1132248805977349</v>
+      </c>
+      <c r="H163">
+        <v>1.3862707481276879</v>
+      </c>
+      <c r="I163">
+        <v>-1.7115787554735149</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -12344,8 +14831,23 @@
       <c r="D164">
         <v>-7.4556055551511236</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E164">
+        <v>1.4618880777561571</v>
+      </c>
+      <c r="F164">
+        <v>-6.4020002673714771</v>
+      </c>
+      <c r="G164">
+        <v>2.1371167518855922</v>
+      </c>
+      <c r="H164">
+        <v>40.985607423424462</v>
+      </c>
+      <c r="I164">
+        <v>-9.3590078646620931</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -12359,8 +14861,23 @@
       <c r="D165">
         <v>5.3984308578947093</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E165">
+        <v>1.4937294872652274</v>
+      </c>
+      <c r="F165">
+        <v>6.483877555183426</v>
+      </c>
+      <c r="G165">
+        <v>2.2312277811256389</v>
+      </c>
+      <c r="H165">
+        <v>42.040668150611403</v>
+      </c>
+      <c r="I165">
+        <v>9.6851590959946545</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -12374,8 +14891,23 @@
       <c r="D166">
         <v>5.4348902267520316</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E166">
+        <v>1.5019558668427635</v>
+      </c>
+      <c r="F166">
+        <v>6.5285633036182844</v>
+      </c>
+      <c r="G166">
+        <v>2.255871425943397</v>
+      </c>
+      <c r="H166">
+        <v>42.622138809351284</v>
+      </c>
+      <c r="I166">
+        <v>9.8056139559238567</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -12389,8 +14921,23 @@
       <c r="D167">
         <v>13.222961570136249</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E167">
+        <v>1.5550658099527936</v>
+      </c>
+      <c r="F167">
+        <v>14.369744590112532</v>
+      </c>
+      <c r="G167">
+        <v>2.418229673284138</v>
+      </c>
+      <c r="H167">
+        <v>206.48955958506838</v>
+      </c>
+      <c r="I167">
+        <v>22.345898509838118</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -12404,8 +14951,23 @@
       <c r="D168">
         <v>5.4404154070653021</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168">
+        <v>1.5573850214423146</v>
+      </c>
+      <c r="F168">
+        <v>6.5895176385311061</v>
+      </c>
+      <c r="G168">
+        <v>2.4254481050128787</v>
+      </c>
+      <c r="H168">
+        <v>43.421742708512568</v>
+      </c>
+      <c r="I168">
+        <v>10.262416068778277</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -12419,8 +14981,23 @@
       <c r="D169">
         <v>6.2977619563753251</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E169">
+        <v>1.5809000069566537</v>
+      </c>
+      <c r="F169">
+        <v>7.4703791733554681</v>
+      </c>
+      <c r="G169">
+        <v>2.4992448319955476</v>
+      </c>
+      <c r="H169">
+        <v>55.806564993703127</v>
+      </c>
+      <c r="I169">
+        <v>11.809922487126499</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -12434,8 +15011,23 @@
       <c r="D170">
         <v>-7.003222890489269</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E170">
+        <v>1.607798312761588</v>
+      </c>
+      <c r="F170">
+        <v>-5.8037073677041917</v>
+      </c>
+      <c r="G170">
+        <v>2.5850154145190092</v>
+      </c>
+      <c r="H170">
+        <v>33.683019209943915</v>
+      </c>
+      <c r="I170">
+        <v>-9.3311909135567976</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -12449,8 +15041,23 @@
       <c r="D171">
         <v>1.4552085758623434</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E171">
+        <v>1.7680740165815223</v>
+      </c>
+      <c r="F171">
+        <v>2.814999802467355</v>
+      </c>
+      <c r="G171">
+        <v>3.1260857281107173</v>
+      </c>
+      <c r="H171">
+        <v>7.9242238878912481</v>
+      </c>
+      <c r="I171">
+        <v>4.977128007424648</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -12464,8 +15071,23 @@
       <c r="D172">
         <v>-1.292744400416268</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172">
+        <v>1.8879590606957208</v>
+      </c>
+      <c r="F172">
+        <v>0.18693187030294212</v>
+      </c>
+      <c r="G172">
+        <v>3.5643894148630686</v>
+      </c>
+      <c r="H172">
+        <v>3.4943524134955974E-2</v>
+      </c>
+      <c r="I172">
+        <v>0.35291971827123692</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -12479,8 +15101,23 @@
       <c r="D173">
         <v>-0.64571850089123473</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E173">
+        <v>1.9547614465409424</v>
+      </c>
+      <c r="F173">
+        <v>0.900760155673197</v>
+      </c>
+      <c r="G173">
+        <v>3.8210923128828376</v>
+      </c>
+      <c r="H173">
+        <v>0.81136885804840209</v>
+      </c>
+      <c r="I173">
+        <v>1.760771224890183</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -12494,8 +15131,23 @@
       <c r="D174">
         <v>7.1971498982748017</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E174">
+        <v>2.0228189350746106</v>
+      </c>
+      <c r="F174">
+        <v>8.8116860433729016</v>
+      </c>
+      <c r="G174">
+        <v>4.0917964440963814</v>
+      </c>
+      <c r="H174">
+        <v>77.645810926972786</v>
+      </c>
+      <c r="I174">
+        <v>17.824445378467381</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -12509,8 +15161,23 @@
       <c r="D175">
         <v>1.4839656614640262</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175">
+        <v>2.0770611990883481</v>
+      </c>
+      <c r="F175">
+        <v>3.1527440705758636</v>
+      </c>
+      <c r="G175">
+        <v>4.3141832247583265</v>
+      </c>
+      <c r="H175">
+        <v>9.939795174551266</v>
+      </c>
+      <c r="I175">
+        <v>6.548442379648983</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -12524,8 +15191,23 @@
       <c r="D176">
         <v>2.1035248209955171</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E176">
+        <v>2.1157965784368571</v>
+      </c>
+      <c r="F176">
+        <v>3.8110386094558635</v>
+      </c>
+      <c r="G176">
+        <v>4.4765951613251111</v>
+      </c>
+      <c r="H176">
+        <v>14.524015282763282</v>
+      </c>
+      <c r="I176">
+        <v>8.0633824501774729</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -12539,8 +15221,23 @@
       <c r="D177">
         <v>-4.0666577660886105</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E177">
+        <v>2.1299301261024084</v>
+      </c>
+      <c r="F177">
+        <v>-2.3450104299627128</v>
+      </c>
+      <c r="G177">
+        <v>4.5366023420786217</v>
+      </c>
+      <c r="H177">
+        <v>5.4990739166339075</v>
+      </c>
+      <c r="I177">
+        <v>-4.994708360801944</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -12554,8 +15251,23 @@
       <c r="D178">
         <v>5.7769284467212856</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E178">
+        <v>2.1522400311368983</v>
+      </c>
+      <c r="F178">
+        <v>7.5208856878816732</v>
+      </c>
+      <c r="G178">
+        <v>4.6321371516281573</v>
+      </c>
+      <c r="H178">
+        <v>56.563721530183386</v>
+      </c>
+      <c r="I178">
+        <v>16.186751247063505</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -12569,8 +15281,23 @@
       <c r="D179">
         <v>-1.2935345239384333</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179">
+        <v>2.1657369325112086</v>
+      </c>
+      <c r="F179">
+        <v>0.46391961859626463</v>
+      </c>
+      <c r="G179">
+        <v>4.6904164608430596</v>
+      </c>
+      <c r="H179">
+        <v>0.21522141251850363</v>
+      </c>
+      <c r="I179">
+        <v>1.0047278517104441</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -12584,8 +15311,23 @@
       <c r="D180">
         <v>-0.63723177845531609</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E180">
+        <v>2.1988607295497786</v>
+      </c>
+      <c r="F180">
+        <v>1.1533461611179519</v>
+      </c>
+      <c r="G180">
+        <v>4.8349885079561847</v>
+      </c>
+      <c r="H180">
+        <v>1.3302073673655166</v>
+      </c>
+      <c r="I180">
+        <v>2.5360475812592562</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -12599,8 +15341,23 @@
       <c r="D181">
         <v>-1.7976503841055091</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E181">
+        <v>2.2163775975059252</v>
+      </c>
+      <c r="F181">
+        <v>1.0444423423905391E-2</v>
+      </c>
+      <c r="G181">
+        <v>4.912329654726137</v>
+      </c>
+      <c r="H181">
+        <v>1.0908598065782361E-4</v>
+      </c>
+      <c r="I181">
+        <v>2.3148786095610042E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -12614,8 +15371,23 @@
       <c r="D182">
         <v>-4.4084799810661934</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E182">
+        <v>2.2231806178751867</v>
+      </c>
+      <c r="F182">
+        <v>-2.5935821531675174</v>
+      </c>
+      <c r="G182">
+        <v>4.942532059695897</v>
+      </c>
+      <c r="H182">
+        <v>6.7266683852290559</v>
+      </c>
+      <c r="I182">
+        <v>-5.7660015737890182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -12629,8 +15401,23 @@
       <c r="D183">
         <v>-3.2221009860222694</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E183">
+        <v>2.2267640270001721</v>
+      </c>
+      <c r="F183">
+        <v>-1.403619748998608</v>
+      </c>
+      <c r="G183">
+        <v>4.9584780319420227</v>
+      </c>
+      <c r="H183">
+        <v>1.9701483997789153</v>
+      </c>
+      <c r="I183">
+        <v>-3.1255299646571109</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -12644,8 +15431,23 @@
       <c r="D184">
         <v>-5.1430902203719597</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E184">
+        <v>2.3730926295684185</v>
+      </c>
+      <c r="F184">
+        <v>-3.1782803807800519</v>
+      </c>
+      <c r="G184">
+        <v>5.6315686285119515</v>
+      </c>
+      <c r="H184">
+        <v>10.101466178851393</v>
+      </c>
+      <c r="I184">
+        <v>-7.5423537463310479</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -12659,8 +15461,23 @@
       <c r="D185">
         <v>-2.3344171040662332</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E185">
+        <v>2.3972942835825961</v>
+      </c>
+      <c r="F185">
+        <v>-0.34540561046014773</v>
+      </c>
+      <c r="G185">
+        <v>5.7470198820977929</v>
+      </c>
+      <c r="H185">
+        <v>0.11930503573734731</v>
+      </c>
+      <c r="I185">
+        <v>-0.82803889547346909</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -12674,8 +15491,23 @@
       <c r="D186">
         <v>-2.5264057512686122</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E186">
+        <v>2.50137685725349</v>
+      </c>
+      <c r="F186">
+        <v>-0.43331168399163289</v>
+      </c>
+      <c r="G186">
+        <v>6.2568861820033463</v>
+      </c>
+      <c r="H186">
+        <v>0.18775901548366472</v>
+      </c>
+      <c r="I186">
+        <v>-1.0838758183142081</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -12689,8 +15521,23 @@
       <c r="D187">
         <v>-2.7421833692642394</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E187">
+        <v>2.5256967455788981</v>
+      </c>
+      <c r="F187">
+        <v>-0.62476941366185201</v>
+      </c>
+      <c r="G187">
+        <v>6.3791440506278372</v>
+      </c>
+      <c r="H187">
+        <v>0.39033682024737437</v>
+      </c>
+      <c r="I187">
+        <v>-1.5779780748229759</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -12704,8 +15551,23 @@
       <c r="D188">
         <v>3.3073092708946206</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E188">
+        <v>2.5670605646155309</v>
+      </c>
+      <c r="F188">
+        <v>5.4660870455336408</v>
+      </c>
+      <c r="G188">
+        <v>6.5897999424042082</v>
+      </c>
+      <c r="H188">
+        <v>29.878107589350687</v>
+      </c>
+      <c r="I188">
+        <v>14.031776497345227</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -12719,8 +15581,23 @@
       <c r="D189">
         <v>7.4117224357905798</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E189">
+        <v>2.696736319194315</v>
+      </c>
+      <c r="F189">
+        <v>9.7001759650083841</v>
+      </c>
+      <c r="G189">
+        <v>7.272386775261702</v>
+      </c>
+      <c r="H189">
+        <v>94.093413752126338</v>
+      </c>
+      <c r="I189">
+        <v>26.158816827413872</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -12734,8 +15611,23 @@
       <c r="D190">
         <v>6.6654820329858921</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E190">
+        <v>2.6971183069690596</v>
+      </c>
+      <c r="F190">
+        <v>8.9543175499784411</v>
+      </c>
+      <c r="G190">
+        <v>7.2744471617876467</v>
+      </c>
+      <c r="H190">
+        <v>80.179802785851905</v>
+      </c>
+      <c r="I190">
+        <v>24.150853790461191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -12749,8 +15641,23 @@
       <c r="D191">
         <v>-1.920614067785209</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E191">
+        <v>2.8119965827499982</v>
+      </c>
+      <c r="F191">
+        <v>0.48309972498827847</v>
+      </c>
+      <c r="G191">
+        <v>7.9073247813976675</v>
+      </c>
+      <c r="H191">
+        <v>0.2333853442837503</v>
+      </c>
+      <c r="I191">
+        <v>1.358474775794503</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -12764,8 +15671,23 @@
       <c r="D192">
         <v>-0.28759927772625815</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192">
+        <v>2.8178992033645045</v>
+      </c>
+      <c r="F192">
+        <v>2.1220171356617357</v>
+      </c>
+      <c r="G192">
+        <v>7.9405559203223088</v>
+      </c>
+      <c r="H192">
+        <v>4.5029567240420372</v>
+      </c>
+      <c r="I192">
+        <v>5.9796303961070327</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -12779,8 +15701,23 @@
       <c r="D193">
         <v>0.11341967365297023</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E193">
+        <v>3.139896707580192</v>
+      </c>
+      <c r="F193">
+        <v>2.8450335912566516</v>
+      </c>
+      <c r="G193">
+        <v>9.8589513342729305</v>
+      </c>
+      <c r="H193">
+        <v>8.0942161353787192</v>
+      </c>
+      <c r="I193">
+        <v>8.9331116061418108</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -12794,8 +15731,23 @@
       <c r="D194">
         <v>-1.5765579064463964</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E194">
+        <v>3.1436620156455319</v>
+      </c>
+      <c r="F194">
+        <v>1.1588213192226249</v>
+      </c>
+      <c r="G194">
+        <v>9.8826108686125291</v>
+      </c>
+      <c r="H194">
+        <v>1.3428668498848646</v>
+      </c>
+      <c r="I194">
+        <v>3.6429425641604114</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -12809,8 +15761,23 @@
       <c r="D195">
         <v>4.0131112655217294</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E195">
+        <v>3.1621156631445047</v>
+      </c>
+      <c r="F195">
+        <v>6.7669441386897233</v>
+      </c>
+      <c r="G195">
+        <v>9.9989754671038096</v>
+      </c>
+      <c r="H195">
+        <v>45.791532976147202</v>
+      </c>
+      <c r="I195">
+        <v>21.397860052574675</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -12824,8 +15791,23 @@
       <c r="D196">
         <v>-2.6700035959947854</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E196">
+        <v>3.1789504100743216</v>
+      </c>
+      <c r="F196">
+        <v>0.10066402410302544</v>
+      </c>
+      <c r="G196">
+        <v>10.105725709711697</v>
+      </c>
+      <c r="H196">
+        <v>1.0133245748614487E-2</v>
+      </c>
+      <c r="I196">
+        <v>0.32000594070204413</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -12839,8 +15821,23 @@
       <c r="D197">
         <v>2.2076221739553148</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E197">
+        <v>3.2310690039594192</v>
+      </c>
+      <c r="F197">
+        <v>5.0304083879382233</v>
+      </c>
+      <c r="G197">
+        <v>10.439806908347313</v>
+      </c>
+      <c r="H197">
+        <v>25.305008549439236</v>
+      </c>
+      <c r="I197">
+        <v>16.253596619524664</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -12854,8 +15851,23 @@
       <c r="D198">
         <v>8.4442035586107522</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E198">
+        <v>3.2678444222256076</v>
+      </c>
+      <c r="F198">
+        <v>11.303765190859849</v>
+      </c>
+      <c r="G198">
+        <v>10.678807167871016</v>
+      </c>
+      <c r="H198">
+        <v>127.7751074900948</v>
+      </c>
+      <c r="I198">
+        <v>36.938946029099341</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -12869,8 +15881,23 @@
       <c r="D199">
         <v>-6.5509766500326805</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E199">
+        <v>3.4076337578881066</v>
+      </c>
+      <c r="F199">
+        <v>-3.5516256821210845</v>
+      </c>
+      <c r="G199">
+        <v>11.611967827898619</v>
+      </c>
+      <c r="H199">
+        <v>12.614044985902058</v>
+      </c>
+      <c r="I199">
+        <v>-12.102639569778182</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -12884,8 +15911,23 @@
       <c r="D200">
         <v>0.89850686890713405</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E200">
+        <v>3.4249050622747745</v>
+      </c>
+      <c r="F200">
+        <v>3.9151291412053979</v>
+      </c>
+      <c r="G200">
+        <v>11.729974685595376</v>
+      </c>
+      <c r="H200">
+        <v>15.328236192315716</v>
+      </c>
+      <c r="I200">
+        <v>13.408945615173858</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -12899,8 +15941,23 @@
       <c r="D201">
         <v>-2.2833546609035693</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E201">
+        <v>3.426232924539363</v>
+      </c>
+      <c r="F201">
+        <v>0.73459547365928302</v>
+      </c>
+      <c r="G201">
+        <v>11.739072053197557</v>
+      </c>
+      <c r="H201">
+        <v>0.53963050992070638</v>
+      </c>
+      <c r="I201">
+        <v>2.5168951980690237</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -12914,8 +15971,23 @@
       <c r="D202">
         <v>-1.3620820027426817</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E202">
+        <v>3.5095244493277278</v>
+      </c>
+      <c r="F202">
+        <v>1.7391596566085354</v>
+      </c>
+      <c r="G202">
+        <v>12.316761860429091</v>
+      </c>
+      <c r="H202">
+        <v>3.0246763111747188</v>
+      </c>
+      <c r="I202">
+        <v>6.1036233361520704</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -12929,8 +16001,23 @@
       <c r="D203">
         <v>-6.5636186263873242</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E203">
+        <v>3.5235534051025752</v>
+      </c>
+      <c r="F203">
+        <v>-3.4483480112612597</v>
+      </c>
+      <c r="G203">
+        <v>12.415428598609953</v>
+      </c>
+      <c r="H203">
+        <v>11.891104006769485</v>
+      </c>
+      <c r="I203">
+        <v>-12.150438377058304</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -12944,8 +16031,23 @@
       <c r="D204">
         <v>-6.4170762925641611</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E204">
+        <v>3.5380825829633977</v>
+      </c>
+      <c r="F204">
+        <v>-3.2872764995772741</v>
+      </c>
+      <c r="G204">
+        <v>12.518028363868948</v>
+      </c>
+      <c r="H204">
+        <v>10.806186784673017</v>
+      </c>
+      <c r="I204">
+        <v>-11.630655728539239</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -12959,8 +16061,23 @@
       <c r="D205">
         <v>3.2973161978588905</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E205">
+        <v>3.8018906161596533</v>
+      </c>
+      <c r="F205">
+        <v>6.6909240240420331</v>
+      </c>
+      <c r="G205">
+        <v>14.454372257242829</v>
+      </c>
+      <c r="H205">
+        <v>44.768464295502831</v>
+      </c>
+      <c r="I205">
+        <v>25.438161260442591</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -12974,8 +16091,23 @@
       <c r="D206">
         <v>-1.9808680917776655</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E206">
+        <v>3.8779880378569942</v>
+      </c>
+      <c r="F206">
+        <v>1.488837156102818</v>
+      </c>
+      <c r="G206">
+        <v>15.03879122176194</v>
+      </c>
+      <c r="H206">
+        <v>2.2166360773923266</v>
+      </c>
+      <c r="I206">
+        <v>5.7736926816837544</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -12989,8 +16121,23 @@
       <c r="D207">
         <v>5.7405486586503685</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E207">
+        <v>4.0253625593322795</v>
+      </c>
+      <c r="F207">
+        <v>9.3576284280061373</v>
+      </c>
+      <c r="G207">
+        <v>16.20354373407412</v>
+      </c>
+      <c r="H207">
+        <v>87.565209796628608</v>
+      </c>
+      <c r="I207">
+        <v>37.66784711823928</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -13004,8 +16151,23 @@
       <c r="D208">
         <v>9.2219579528318718</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E208">
+        <v>4.0386593718721997</v>
+      </c>
+      <c r="F208">
+        <v>12.852334534727561</v>
+      </c>
+      <c r="G208">
+        <v>16.310769522011149</v>
+      </c>
+      <c r="H208">
+        <v>165.1825029925507</v>
+      </c>
+      <c r="I208">
+        <v>51.906201319114189</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -13019,8 +16181,23 @@
       <c r="D209">
         <v>-5.4231577450991608</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E209">
+        <v>4.0845251896826085</v>
+      </c>
+      <c r="F209">
+        <v>-1.746915345393063</v>
+      </c>
+      <c r="G209">
+        <v>16.683346025151749</v>
+      </c>
+      <c r="H209">
+        <v>3.0517132239697649</v>
+      </c>
+      <c r="I209">
+        <v>-7.1353197325010607</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -13034,8 +16211,23 @@
       <c r="D210">
         <v>-2.3977349883352872</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E210">
+        <v>4.1251796028518584</v>
+      </c>
+      <c r="F210">
+        <v>1.3191618245400605</v>
+      </c>
+      <c r="G210">
+        <v>17.017106755785015</v>
+      </c>
+      <c r="H210">
+        <v>1.7401879193238614</v>
+      </c>
+      <c r="I210">
+        <v>5.4417794514534998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -13049,8 +16241,23 @@
       <c r="D211">
         <v>-6.9205270847305655</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E211">
+        <v>4.2687615314207505</v>
+      </c>
+      <c r="F211">
+        <v>-3.0600483432863257</v>
+      </c>
+      <c r="G211">
+        <v>18.222325012137631</v>
+      </c>
+      <c r="H211">
+        <v>9.3638958632493861</v>
+      </c>
+      <c r="I211">
+        <v>-13.062616652108467</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -13064,8 +16271,23 @@
       <c r="D212">
         <v>-3.055345132452203</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212">
+        <v>4.3865047155122738</v>
+      </c>
+      <c r="F212">
+        <v>0.92287679308356019</v>
+      </c>
+      <c r="G212">
+        <v>19.241423619211414</v>
+      </c>
+      <c r="H212">
+        <v>0.85170157521219636</v>
+      </c>
+      <c r="I212">
+        <v>4.0482034046978814</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -13079,8 +16301,23 @@
       <c r="D213">
         <v>1.1732652183127357</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E213">
+        <v>4.5391361163638067</v>
+      </c>
+      <c r="F213">
+        <v>5.3041185447000316</v>
+      </c>
+      <c r="G213">
+        <v>20.603756682878302</v>
+      </c>
+      <c r="H213">
+        <v>28.133673536230781</v>
+      </c>
+      <c r="I213">
+        <v>24.076116051722948</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -13094,8 +16331,23 @@
       <c r="D214">
         <v>-1.086550582840573</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E214">
+        <v>4.6457016105705407</v>
+      </c>
+      <c r="F214">
+        <v>3.1508682377534569</v>
+      </c>
+      <c r="G214">
+        <v>21.582543454457717</v>
+      </c>
+      <c r="H214">
+        <v>9.9279706516835748</v>
+      </c>
+      <c r="I214">
+        <v>14.637993646826796</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -13109,8 +16361,23 @@
       <c r="D215">
         <v>3.6006099435326178</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E215">
+        <v>4.6754602772125509</v>
+      </c>
+      <c r="F215">
+        <v>7.8677874307686579</v>
+      </c>
+      <c r="G215">
+        <v>21.859928803792464</v>
+      </c>
+      <c r="H215">
+        <v>61.902079055761277</v>
+      </c>
+      <c r="I215">
+        <v>36.785527602111053</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -13124,8 +16391,23 @@
       <c r="D216">
         <v>-3.5325342651049141</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E216">
+        <v>4.7036364230734762</v>
+      </c>
+      <c r="F216">
+        <v>0.76281936799205141</v>
+      </c>
+      <c r="G216">
+        <v>22.124195600463445</v>
+      </c>
+      <c r="H216">
+        <v>0.58189338818379277</v>
+      </c>
+      <c r="I216">
+        <v>3.5880249635133024</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -13139,8 +16421,23 @@
       <c r="D217">
         <v>4.7421963245142251</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E217">
+        <v>4.7060920587682631</v>
+      </c>
+      <c r="F217">
+        <v>9.0400055933059775</v>
+      </c>
+      <c r="G217">
+        <v>22.147302465601708</v>
+      </c>
+      <c r="H217">
+        <v>81.721701127003357</v>
+      </c>
+      <c r="I217">
+        <v>42.543098533877938</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -13154,8 +16451,23 @@
       <c r="D218">
         <v>3.0673390938318335</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E218">
+        <v>4.7413622633030172</v>
+      </c>
+      <c r="F218">
+        <v>7.40041856715834</v>
+      </c>
+      <c r="G218">
+        <v>22.480516111873911</v>
+      </c>
+      <c r="H218">
+        <v>54.7661949691419</v>
+      </c>
+      <c r="I218">
+        <v>35.088065326971538</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -13169,8 +16481,23 @@
       <c r="D219">
         <v>-1.5307932699215598</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E219">
+        <v>4.7425991760974284</v>
+      </c>
+      <c r="F219">
+        <v>2.8035231161993579</v>
+      </c>
+      <c r="G219">
+        <v>22.492246945120009</v>
+      </c>
+      <c r="H219">
+        <v>7.8597418630641585</v>
+      </c>
+      <c r="I219">
+        <v>13.295986421057171</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -13184,8 +16511,23 @@
       <c r="D220">
         <v>4.1502858039166313</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E220">
+        <v>4.7971688582038041</v>
+      </c>
+      <c r="F220">
+        <v>8.5391718721439247</v>
+      </c>
+      <c r="G220">
+        <v>23.012829054120388</v>
+      </c>
+      <c r="H220">
+        <v>72.917456262013985</v>
+      </c>
+      <c r="I220">
+        <v>40.963849379898711</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -13199,8 +16541,23 @@
       <c r="D221">
         <v>2.0797301658603828</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E221">
+        <v>4.9512463556311559</v>
+      </c>
+      <c r="F221">
+        <v>6.622693731515028</v>
+      </c>
+      <c r="G221">
+        <v>24.514840474150802</v>
+      </c>
+      <c r="H221">
+        <v>43.860072261448444</v>
+      </c>
+      <c r="I221">
+        <v>32.790588202625081</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -13214,8 +16571,23 @@
       <c r="D222">
         <v>1.0603230293781962</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E222">
+        <v>5.1530996097426396</v>
+      </c>
+      <c r="F222">
+        <v>5.8051398491443251</v>
+      </c>
+      <c r="G222">
+        <v>26.554435587929746</v>
+      </c>
+      <c r="H222">
+        <v>33.699648668123395</v>
+      </c>
+      <c r="I222">
+        <v>29.914463891127067</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -13229,8 +16601,23 @@
       <c r="D223">
         <v>-4.6030891098780558</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E223">
+        <v>5.2029672042408492</v>
+      </c>
+      <c r="F223">
+        <v>0.19159530438628281</v>
+      </c>
+      <c r="G223">
+        <v>27.07086772840584</v>
+      </c>
+      <c r="H223">
+        <v>3.6708760662872361E-2</v>
+      </c>
+      <c r="I223">
+        <v>0.99686408520837233</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>223</v>
       </c>
@@ -13244,8 +16631,23 @@
       <c r="D224">
         <v>-7.3289584179292433</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E224">
+        <v>5.236200140643632</v>
+      </c>
+      <c r="F224">
+        <v>-2.5010410672621219</v>
+      </c>
+      <c r="G224">
+        <v>27.417791912876393</v>
+      </c>
+      <c r="H224">
+        <v>6.2552064201316542</v>
+      </c>
+      <c r="I224">
+        <v>-13.095951588153422</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -13259,8 +16661,23 @@
       <c r="D225">
         <v>0.84957036960986443</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E225">
+        <v>5.3030116214358713</v>
+      </c>
+      <c r="F225">
+        <v>5.7442992010692251</v>
+      </c>
+      <c r="G225">
+        <v>28.121932257083909</v>
+      </c>
+      <c r="H225">
+        <v>32.996973311404538</v>
+      </c>
+      <c r="I225">
+        <v>30.462085420274892</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -13274,8 +16691,23 @@
       <c r="D226">
         <v>-0.72061538958223537</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E226">
+        <v>5.4064939286035951</v>
+      </c>
+      <c r="F226">
+        <v>4.2775957490448491</v>
+      </c>
+      <c r="G226">
+        <v>29.230176600027537</v>
+      </c>
+      <c r="H226">
+        <v>18.297825392246562</v>
+      </c>
+      <c r="I226">
+        <v>23.126795446231526</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -13289,8 +16721,23 @@
       <c r="D227">
         <v>0.85345277511805762</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E227">
+        <v>5.5249283286684658</v>
+      </c>
+      <c r="F227">
+        <v>5.9700983138100128</v>
+      </c>
+      <c r="G227">
+        <v>30.524833036923326</v>
+      </c>
+      <c r="H227">
+        <v>35.642073876557156</v>
+      </c>
+      <c r="I227">
+        <v>32.984365298904777</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -13304,8 +16751,23 @@
       <c r="D228">
         <v>6.8996541813248768</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E228">
+        <v>5.5995432740019169</v>
+      </c>
+      <c r="F228">
+        <v>12.090914665350283</v>
+      </c>
+      <c r="G228">
+        <v>31.354884877420105</v>
+      </c>
+      <c r="H228">
+        <v>146.19021744478255</v>
+      </c>
+      <c r="I228">
+        <v>67.703599890893315</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -13319,8 +16781,23 @@
       <c r="D229">
         <v>-3.0369221803994151</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E229">
+        <v>5.6568232503195759</v>
+      </c>
+      <c r="F229">
+        <v>2.2116182799436501</v>
+      </c>
+      <c r="G229">
+        <v>31.999649285356131</v>
+      </c>
+      <c r="H229">
+        <v>4.8912554161809094</v>
+      </c>
+      <c r="I229">
+        <v>12.510733706817028</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -13334,8 +16811,23 @@
       <c r="D230">
         <v>3.9825749809097033</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E230">
+        <v>5.6694288468861487</v>
+      </c>
+      <c r="F230">
+        <v>9.2437210378193413</v>
+      </c>
+      <c r="G230">
+        <v>32.142423449904804</v>
+      </c>
+      <c r="H230">
+        <v>85.446378625023883</v>
+      </c>
+      <c r="I230">
+        <v>52.406618704381344</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -13349,8 +16841,23 @@
       <c r="D231">
         <v>1.8009131963481195</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E231">
+        <v>5.6820890131348278</v>
+      </c>
+      <c r="F231">
+        <v>7.0747194195064367</v>
+      </c>
+      <c r="G231">
+        <v>32.28613555318752</v>
+      </c>
+      <c r="H231">
+        <v>50.051654864741494</v>
+      </c>
+      <c r="I231">
+        <v>40.19918548458913</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -13364,8 +16871,23 @@
       <c r="D232">
         <v>7.9327719504362904</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E232">
+        <v>5.730728789785644</v>
+      </c>
+      <c r="F232">
+        <v>13.255217950245424</v>
+      </c>
+      <c r="G232">
+        <v>32.841252462078032</v>
+      </c>
+      <c r="H232">
+        <v>175.70080290850848</v>
+      </c>
+      <c r="I232">
+        <v>75.962059122354901</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -13379,8 +16901,23 @@
       <c r="D233">
         <v>3.4923914427054115</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E233">
+        <v>5.7393507995584514</v>
+      </c>
+      <c r="F233">
+        <v>8.8234594522873522</v>
+      </c>
+      <c r="G233">
+        <v>32.940147600392237</v>
+      </c>
+      <c r="H233">
+        <v>77.853436706159016</v>
+      </c>
+      <c r="I233">
+        <v>50.640929062356989</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -13394,8 +16931,23 @@
       <c r="D234">
         <v>2.6951852305501234</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E234">
+        <v>5.9586117822618689</v>
+      </c>
+      <c r="F234">
+        <v>8.2455142228354816</v>
+      </c>
+      <c r="G234">
+        <v>35.505054371709967</v>
+      </c>
+      <c r="H234">
+        <v>67.98850479898222</v>
+      </c>
+      <c r="I234">
+        <v>49.131818198995319</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -13409,8 +16961,23 @@
       <c r="D235">
         <v>0.26155362320423592</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E235">
+        <v>5.9614130259433296</v>
+      </c>
+      <c r="F235">
+        <v>5.8146838591710548</v>
+      </c>
+      <c r="G235">
+        <v>35.538445265886807</v>
+      </c>
+      <c r="H235">
+        <v>33.810548382104393</v>
+      </c>
+      <c r="I235">
+        <v>34.663732099804754</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -13424,8 +16991,23 @@
       <c r="D236">
         <v>-5.8392629398440477</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E236">
+        <v>6.3149336165224668</v>
+      </c>
+      <c r="F236">
+        <v>6.7387886701908428E-2</v>
+      </c>
+      <c r="G236">
+        <v>39.878386581085522</v>
+      </c>
+      <c r="H236">
+        <v>4.5411272741492465E-3</v>
+      </c>
+      <c r="I236">
+        <v>0.42555003108028883</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -13439,8 +17021,23 @@
       <c r="D237">
         <v>1.3573185242421459</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E237">
+        <v>6.6037527540174779</v>
+      </c>
+      <c r="F237">
+        <v>7.5527884882831131</v>
+      </c>
+      <c r="G237">
+        <v>43.609550436193423</v>
+      </c>
+      <c r="H237">
+        <v>57.044613948741912</v>
+      </c>
+      <c r="I237">
+        <v>49.876747780011108</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -13454,8 +17051,23 @@
       <c r="D238">
         <v>-5.986180440231692E-2</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E238">
+        <v>6.6562124084157404</v>
+      </c>
+      <c r="F238">
+        <v>6.1880678140369128</v>
+      </c>
+      <c r="G238">
+        <v>44.305163625947671</v>
+      </c>
+      <c r="H238">
+        <v>38.292183271119576</v>
+      </c>
+      <c r="I238">
+        <v>41.189093767910563</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -13469,8 +17081,23 @@
       <c r="D239">
         <v>2.2863218873681035</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E239">
+        <v>6.7149111964681651</v>
+      </c>
+      <c r="F239">
+        <v>8.5929502938597579</v>
+      </c>
+      <c r="G239">
+        <v>45.090032376453529</v>
+      </c>
+      <c r="H239">
+        <v>73.838794752744505</v>
+      </c>
+      <c r="I239">
+        <v>57.700898138933297</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -13484,8 +17111,23 @@
       <c r="D240">
         <v>-0.56903672884800471</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E240">
+        <v>6.8077342257311102</v>
+      </c>
+      <c r="F240">
+        <v>5.8304147069065948</v>
+      </c>
+      <c r="G240">
+        <v>46.34524528819076</v>
+      </c>
+      <c r="H240">
+        <v>33.993735654512712</v>
+      </c>
+      <c r="I240">
+        <v>39.691913750414045</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -13499,8 +17141,23 @@
       <c r="D241">
         <v>-7.0909891292103566</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E241">
+        <v>6.8555372672562953</v>
+      </c>
+      <c r="F241">
+        <v>-0.643734651930572</v>
+      </c>
+      <c r="G241">
+        <v>46.998391222739912</v>
+      </c>
+      <c r="H241">
+        <v>0.41439430209617467</v>
+      </c>
+      <c r="I241">
+        <v>-4.4131468965342959</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -13514,8 +17171,23 @@
       <c r="D242">
         <v>-7.7041931945132092</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E242">
+        <v>7.0369814602599945</v>
+      </c>
+      <c r="F242">
+        <v>-1.0754945242297254</v>
+      </c>
+      <c r="G242">
+        <v>49.519108072042883</v>
+      </c>
+      <c r="H242">
+        <v>1.1566884716481234</v>
+      </c>
+      <c r="I242">
+        <v>-7.5682350276157209</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -13529,8 +17201,23 @@
       <c r="D243">
         <v>5.3970552471582778</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E243">
+        <v>7.1578169263375457</v>
+      </c>
+      <c r="F243">
+        <v>12.146589383519313</v>
+      </c>
+      <c r="G243">
+        <v>51.234343150964271</v>
+      </c>
+      <c r="H243">
+        <v>147.53963365182409</v>
+      </c>
+      <c r="I243">
+        <v>86.943063086626466</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -13544,8 +17231,23 @@
       <c r="D244">
         <v>4.0051986616163049</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E244">
+        <v>7.1902313175087329</v>
+      </c>
+      <c r="F244">
+        <v>10.787147189148527</v>
+      </c>
+      <c r="G244">
+        <v>51.699426399283368</v>
+      </c>
+      <c r="H244">
+        <v>116.36254448035497</v>
+      </c>
+      <c r="I244">
+        <v>77.562083545992039</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -13559,8 +17261,23 @@
       <c r="D245">
         <v>4.6547597776225302</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E245">
+        <v>7.3298569441249128</v>
+      </c>
+      <c r="F245">
+        <v>11.576333931770932</v>
+      </c>
+      <c r="G245">
+        <v>53.726802821336207</v>
+      </c>
+      <c r="H245">
+        <v>134.01150729987106</v>
+      </c>
+      <c r="I245">
+        <v>84.852871657300028</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -13574,8 +17291,23 @@
       <c r="D246">
         <v>-1.5155706023506355</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E246">
+        <v>7.3615801193227526</v>
+      </c>
+      <c r="F246">
+        <v>5.4377267269956064</v>
+      </c>
+      <c r="G246">
+        <v>54.192861853207994</v>
+      </c>
+      <c r="H246">
+        <v>29.568871957482351</v>
+      </c>
+      <c r="I246">
+        <v>40.030260967760839</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -13589,8 +17321,23 @@
       <c r="D247">
         <v>4.8512788453081157</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E247">
+        <v>7.5790948721987661</v>
+      </c>
+      <c r="F247">
+        <v>12.022090927530371</v>
+      </c>
+      <c r="G247">
+        <v>57.442679081789628</v>
+      </c>
+      <c r="H247">
+        <v>144.53067026980807</v>
+      </c>
+      <c r="I247">
+        <v>91.116567701952746</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -13604,8 +17351,23 @@
       <c r="D248">
         <v>-3.2244543035631068</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E248">
+        <v>7.6261703179625329</v>
+      </c>
+      <c r="F248">
+        <v>3.9934332244229154</v>
+      </c>
+      <c r="G248">
+        <v>58.158473718572758</v>
+      </c>
+      <c r="H248">
+        <v>15.947508917924802</v>
+      </c>
+      <c r="I248">
+        <v>30.454601922859446</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -13619,8 +17381,23 @@
       <c r="D249">
         <v>2.0822312762902584</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E249">
+        <v>7.6899804662389215</v>
+      </c>
+      <c r="F249">
+        <v>9.3639289525526692</v>
+      </c>
+      <c r="G249">
+        <v>59.135799571136182</v>
+      </c>
+      <c r="H249">
+        <v>87.683165428454132</v>
+      </c>
+      <c r="I249">
+        <v>72.008430732379111</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -13634,8 +17411,23 @@
       <c r="D250">
         <v>4.6188915803213604</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E250">
+        <v>7.8963266241771635</v>
+      </c>
+      <c r="F250">
+        <v>12.106935414522013</v>
+      </c>
+      <c r="G250">
+        <v>62.35197415568912</v>
+      </c>
+      <c r="H250">
+        <v>146.5778851314073</v>
+      </c>
+      <c r="I250">
+        <v>95.600316450883554</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -13649,8 +17441,23 @@
       <c r="D251">
         <v>0.43371528590796515</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E251">
+        <v>10.66017188350088</v>
+      </c>
+      <c r="F251">
+        <v>10.685604379432334</v>
+      </c>
+      <c r="G251">
+        <v>113.6392645857827</v>
+      </c>
+      <c r="H251">
+        <v>114.18214095374348</v>
+      </c>
+      <c r="I251">
+        <v>113.91037936383843</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="10" t="s">
         <v>2</v>
       </c>
@@ -13661,6 +17468,15 @@
       <c r="C252" s="10">
         <f>AVERAGE(C2:C251)</f>
         <v>70.430962913924304</v>
+      </c>
+      <c r="G252">
+        <v>3868.5367990991249</v>
+      </c>
+      <c r="H252">
+        <v>9713.7487948334328</v>
+      </c>
+      <c r="I252">
+        <v>3900.2152803146896</v>
       </c>
     </row>
   </sheetData>

--- a/lab7.xlsx
+++ b/lab7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="РОСТ" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>рост</t>
   </si>
@@ -107,12 +107,21 @@
   <si>
     <t>r крит =</t>
   </si>
+  <si>
+    <t>с. Пакет анализа:</t>
+  </si>
+  <si>
+    <t>Столбец 1</t>
+  </si>
+  <si>
+    <t>Столбец 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +131,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -285,11 +302,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -315,6 +352,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -9910,7 +9955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:L4"/>
     </sheetView>
   </sheetViews>
@@ -21272,23 +21317,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D252"/>
+  <dimension ref="A1:G252"/>
   <sheetViews>
-    <sheetView topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="E249" sqref="E249"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -21302,8 +21351,15 @@
       <c r="D2">
         <v>-3.5462903724692296</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -21317,8 +21373,15 @@
       <c r="D3">
         <v>-4.9414779823564459</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="21">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -21332,8 +21395,17 @@
       <c r="D4">
         <v>8.3133727457607165</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0.63624118630833748</v>
+      </c>
+      <c r="G4" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -21348,7 +21420,7 @@
         <v>-1.0411611128802178</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -21363,7 +21435,7 @@
         <v>-0.21560140339715872</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -21378,7 +21450,7 @@
         <v>-0.21253754312056117</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -21393,7 +21465,7 @@
         <v>1.8430114323564339</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -21408,7 +21480,7 @@
         <v>7.3300952863064595</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -21423,7 +21495,7 @@
         <v>0.22861854631628376</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -21438,7 +21510,7 @@
         <v>2.3391066861222498</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -21453,7 +21525,7 @@
         <v>-6.0374873100954574</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -21468,7 +21540,7 @@
         <v>-0.95220684670493938</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -21483,7 +21555,7 @@
         <v>-8.1734242485254072</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -21498,7 +21570,7 @@
         <v>4.4209059524291661</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -25052,6 +25124,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/lab7.xlsx
+++ b/lab7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="РОСТ" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>рост</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>b. Функция:</t>
+  </si>
+  <si>
+    <t>типо сделала вывод</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -17539,7 +17542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -17552,10 +17555,10 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="23"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -21351,10 +21354,10 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -28938,10 +28941,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D252"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
-    <sheetView topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="E249" sqref="E249"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="E250" sqref="E250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32539,7 +32542,7 @@
         <v>-0.56903672884800471</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -32554,7 +32557,7 @@
         <v>-7.0909891292103566</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -32569,7 +32572,7 @@
         <v>-7.7041931945132092</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -32584,7 +32587,7 @@
         <v>5.3970552471582778</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -32599,7 +32602,7 @@
         <v>4.0051986616163049</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -32614,7 +32617,7 @@
         <v>4.6547597776225302</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -32629,7 +32632,7 @@
         <v>-1.5155706023506355</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -32644,7 +32647,7 @@
         <v>4.8512788453081157</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -32659,7 +32662,7 @@
         <v>-3.2244543035631068</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -32673,8 +32676,11 @@
       <c r="D249">
         <v>2.0822312762902584</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E249" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -32689,7 +32695,7 @@
         <v>4.6188915803213604</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -32704,7 +32710,7 @@
         <v>0.43371528590796515</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
         <v>2</v>
       </c>
